--- a/xlsx/laboratory/technology/ШП СОЖ ШСП.xlsx
+++ b/xlsx/laboratory/technology/ШП СОЖ ШСП.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="17940" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="17940" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="нормативы ШП" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'нормативы ШП'!$A$2:$K$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'нормативы ШП'!$A$1:$K$13</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>наименование</t>
   </si>
@@ -280,70 +280,22 @@
     <t>Эмулькат 4010</t>
   </si>
   <si>
-    <t>8,7</t>
-  </si>
-  <si>
-    <t>9,6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>Эмулькат 4021</t>
   </si>
   <si>
     <t>Симпро 36</t>
   </si>
   <si>
-    <t>9,1</t>
-  </si>
-  <si>
-    <t>4,5</t>
-  </si>
-  <si>
     <t>Симпро 41</t>
   </si>
   <si>
-    <t>9,3</t>
-  </si>
-  <si>
     <t>Фрео</t>
   </si>
   <si>
-    <t>9,0</t>
-  </si>
-  <si>
     <t>содово нитритная эмульсия</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
     <t>содово нитрит с Симпро 41</t>
-  </si>
-  <si>
-    <t>200</t>
   </si>
   <si>
     <t>спец. водный раствор</t>
@@ -562,7 +514,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -604,33 +556,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -664,20 +589,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -988,7 +937,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1004,67 +953,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="29" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="33" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
@@ -1077,11 +1026,11 @@
       <c r="F4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="32"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1369,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,64 +1329,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="33" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
-      <c r="B4" s="25"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
@@ -1450,11 +1399,11 @@
       <c r="F4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="32"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -1661,7 +1610,8 @@
     <mergeCell ref="K3:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1669,974 +1619,974 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="23" customWidth="1"/>
-    <col min="3" max="4" width="7.85546875" style="15" customWidth="1"/>
-    <col min="5" max="8" width="4.5703125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="15" customWidth="1"/>
-    <col min="10" max="11" width="4.5703125" style="15" customWidth="1"/>
-    <col min="12" max="12" width="11" style="15" customWidth="1"/>
-    <col min="13" max="14" width="8" style="15" customWidth="1"/>
-    <col min="15" max="16" width="7" style="15" customWidth="1"/>
-    <col min="17" max="256" width="9.140625" style="15"/>
-    <col min="257" max="257" width="2.85546875" style="15" customWidth="1"/>
-    <col min="258" max="258" width="4.42578125" style="15" customWidth="1"/>
-    <col min="259" max="259" width="9.140625" style="15"/>
-    <col min="260" max="260" width="15" style="15" customWidth="1"/>
-    <col min="261" max="261" width="9.140625" style="15"/>
-    <col min="262" max="268" width="7.28515625" style="15" customWidth="1"/>
-    <col min="269" max="512" width="9.140625" style="15"/>
-    <col min="513" max="513" width="2.85546875" style="15" customWidth="1"/>
-    <col min="514" max="514" width="4.42578125" style="15" customWidth="1"/>
-    <col min="515" max="515" width="9.140625" style="15"/>
-    <col min="516" max="516" width="15" style="15" customWidth="1"/>
-    <col min="517" max="517" width="9.140625" style="15"/>
-    <col min="518" max="524" width="7.28515625" style="15" customWidth="1"/>
-    <col min="525" max="768" width="9.140625" style="15"/>
-    <col min="769" max="769" width="2.85546875" style="15" customWidth="1"/>
-    <col min="770" max="770" width="4.42578125" style="15" customWidth="1"/>
-    <col min="771" max="771" width="9.140625" style="15"/>
-    <col min="772" max="772" width="15" style="15" customWidth="1"/>
-    <col min="773" max="773" width="9.140625" style="15"/>
-    <col min="774" max="780" width="7.28515625" style="15" customWidth="1"/>
-    <col min="781" max="1024" width="9.140625" style="15"/>
-    <col min="1025" max="1025" width="2.85546875" style="15" customWidth="1"/>
-    <col min="1026" max="1026" width="4.42578125" style="15" customWidth="1"/>
-    <col min="1027" max="1027" width="9.140625" style="15"/>
-    <col min="1028" max="1028" width="15" style="15" customWidth="1"/>
-    <col min="1029" max="1029" width="9.140625" style="15"/>
-    <col min="1030" max="1036" width="7.28515625" style="15" customWidth="1"/>
-    <col min="1037" max="1280" width="9.140625" style="15"/>
-    <col min="1281" max="1281" width="2.85546875" style="15" customWidth="1"/>
-    <col min="1282" max="1282" width="4.42578125" style="15" customWidth="1"/>
-    <col min="1283" max="1283" width="9.140625" style="15"/>
-    <col min="1284" max="1284" width="15" style="15" customWidth="1"/>
-    <col min="1285" max="1285" width="9.140625" style="15"/>
-    <col min="1286" max="1292" width="7.28515625" style="15" customWidth="1"/>
-    <col min="1293" max="1536" width="9.140625" style="15"/>
-    <col min="1537" max="1537" width="2.85546875" style="15" customWidth="1"/>
-    <col min="1538" max="1538" width="4.42578125" style="15" customWidth="1"/>
-    <col min="1539" max="1539" width="9.140625" style="15"/>
-    <col min="1540" max="1540" width="15" style="15" customWidth="1"/>
-    <col min="1541" max="1541" width="9.140625" style="15"/>
-    <col min="1542" max="1548" width="7.28515625" style="15" customWidth="1"/>
-    <col min="1549" max="1792" width="9.140625" style="15"/>
-    <col min="1793" max="1793" width="2.85546875" style="15" customWidth="1"/>
-    <col min="1794" max="1794" width="4.42578125" style="15" customWidth="1"/>
-    <col min="1795" max="1795" width="9.140625" style="15"/>
-    <col min="1796" max="1796" width="15" style="15" customWidth="1"/>
-    <col min="1797" max="1797" width="9.140625" style="15"/>
-    <col min="1798" max="1804" width="7.28515625" style="15" customWidth="1"/>
-    <col min="1805" max="2048" width="9.140625" style="15"/>
-    <col min="2049" max="2049" width="2.85546875" style="15" customWidth="1"/>
-    <col min="2050" max="2050" width="4.42578125" style="15" customWidth="1"/>
-    <col min="2051" max="2051" width="9.140625" style="15"/>
-    <col min="2052" max="2052" width="15" style="15" customWidth="1"/>
-    <col min="2053" max="2053" width="9.140625" style="15"/>
-    <col min="2054" max="2060" width="7.28515625" style="15" customWidth="1"/>
-    <col min="2061" max="2304" width="9.140625" style="15"/>
-    <col min="2305" max="2305" width="2.85546875" style="15" customWidth="1"/>
-    <col min="2306" max="2306" width="4.42578125" style="15" customWidth="1"/>
-    <col min="2307" max="2307" width="9.140625" style="15"/>
-    <col min="2308" max="2308" width="15" style="15" customWidth="1"/>
-    <col min="2309" max="2309" width="9.140625" style="15"/>
-    <col min="2310" max="2316" width="7.28515625" style="15" customWidth="1"/>
-    <col min="2317" max="2560" width="9.140625" style="15"/>
-    <col min="2561" max="2561" width="2.85546875" style="15" customWidth="1"/>
-    <col min="2562" max="2562" width="4.42578125" style="15" customWidth="1"/>
-    <col min="2563" max="2563" width="9.140625" style="15"/>
-    <col min="2564" max="2564" width="15" style="15" customWidth="1"/>
-    <col min="2565" max="2565" width="9.140625" style="15"/>
-    <col min="2566" max="2572" width="7.28515625" style="15" customWidth="1"/>
-    <col min="2573" max="2816" width="9.140625" style="15"/>
-    <col min="2817" max="2817" width="2.85546875" style="15" customWidth="1"/>
-    <col min="2818" max="2818" width="4.42578125" style="15" customWidth="1"/>
-    <col min="2819" max="2819" width="9.140625" style="15"/>
-    <col min="2820" max="2820" width="15" style="15" customWidth="1"/>
-    <col min="2821" max="2821" width="9.140625" style="15"/>
-    <col min="2822" max="2828" width="7.28515625" style="15" customWidth="1"/>
-    <col min="2829" max="3072" width="9.140625" style="15"/>
-    <col min="3073" max="3073" width="2.85546875" style="15" customWidth="1"/>
-    <col min="3074" max="3074" width="4.42578125" style="15" customWidth="1"/>
-    <col min="3075" max="3075" width="9.140625" style="15"/>
-    <col min="3076" max="3076" width="15" style="15" customWidth="1"/>
-    <col min="3077" max="3077" width="9.140625" style="15"/>
-    <col min="3078" max="3084" width="7.28515625" style="15" customWidth="1"/>
-    <col min="3085" max="3328" width="9.140625" style="15"/>
-    <col min="3329" max="3329" width="2.85546875" style="15" customWidth="1"/>
-    <col min="3330" max="3330" width="4.42578125" style="15" customWidth="1"/>
-    <col min="3331" max="3331" width="9.140625" style="15"/>
-    <col min="3332" max="3332" width="15" style="15" customWidth="1"/>
-    <col min="3333" max="3333" width="9.140625" style="15"/>
-    <col min="3334" max="3340" width="7.28515625" style="15" customWidth="1"/>
-    <col min="3341" max="3584" width="9.140625" style="15"/>
-    <col min="3585" max="3585" width="2.85546875" style="15" customWidth="1"/>
-    <col min="3586" max="3586" width="4.42578125" style="15" customWidth="1"/>
-    <col min="3587" max="3587" width="9.140625" style="15"/>
-    <col min="3588" max="3588" width="15" style="15" customWidth="1"/>
-    <col min="3589" max="3589" width="9.140625" style="15"/>
-    <col min="3590" max="3596" width="7.28515625" style="15" customWidth="1"/>
-    <col min="3597" max="3840" width="9.140625" style="15"/>
-    <col min="3841" max="3841" width="2.85546875" style="15" customWidth="1"/>
-    <col min="3842" max="3842" width="4.42578125" style="15" customWidth="1"/>
-    <col min="3843" max="3843" width="9.140625" style="15"/>
-    <col min="3844" max="3844" width="15" style="15" customWidth="1"/>
-    <col min="3845" max="3845" width="9.140625" style="15"/>
-    <col min="3846" max="3852" width="7.28515625" style="15" customWidth="1"/>
-    <col min="3853" max="4096" width="9.140625" style="15"/>
-    <col min="4097" max="4097" width="2.85546875" style="15" customWidth="1"/>
-    <col min="4098" max="4098" width="4.42578125" style="15" customWidth="1"/>
-    <col min="4099" max="4099" width="9.140625" style="15"/>
-    <col min="4100" max="4100" width="15" style="15" customWidth="1"/>
-    <col min="4101" max="4101" width="9.140625" style="15"/>
-    <col min="4102" max="4108" width="7.28515625" style="15" customWidth="1"/>
-    <col min="4109" max="4352" width="9.140625" style="15"/>
-    <col min="4353" max="4353" width="2.85546875" style="15" customWidth="1"/>
-    <col min="4354" max="4354" width="4.42578125" style="15" customWidth="1"/>
-    <col min="4355" max="4355" width="9.140625" style="15"/>
-    <col min="4356" max="4356" width="15" style="15" customWidth="1"/>
-    <col min="4357" max="4357" width="9.140625" style="15"/>
-    <col min="4358" max="4364" width="7.28515625" style="15" customWidth="1"/>
-    <col min="4365" max="4608" width="9.140625" style="15"/>
-    <col min="4609" max="4609" width="2.85546875" style="15" customWidth="1"/>
-    <col min="4610" max="4610" width="4.42578125" style="15" customWidth="1"/>
-    <col min="4611" max="4611" width="9.140625" style="15"/>
-    <col min="4612" max="4612" width="15" style="15" customWidth="1"/>
-    <col min="4613" max="4613" width="9.140625" style="15"/>
-    <col min="4614" max="4620" width="7.28515625" style="15" customWidth="1"/>
-    <col min="4621" max="4864" width="9.140625" style="15"/>
-    <col min="4865" max="4865" width="2.85546875" style="15" customWidth="1"/>
-    <col min="4866" max="4866" width="4.42578125" style="15" customWidth="1"/>
-    <col min="4867" max="4867" width="9.140625" style="15"/>
-    <col min="4868" max="4868" width="15" style="15" customWidth="1"/>
-    <col min="4869" max="4869" width="9.140625" style="15"/>
-    <col min="4870" max="4876" width="7.28515625" style="15" customWidth="1"/>
-    <col min="4877" max="5120" width="9.140625" style="15"/>
-    <col min="5121" max="5121" width="2.85546875" style="15" customWidth="1"/>
-    <col min="5122" max="5122" width="4.42578125" style="15" customWidth="1"/>
-    <col min="5123" max="5123" width="9.140625" style="15"/>
-    <col min="5124" max="5124" width="15" style="15" customWidth="1"/>
-    <col min="5125" max="5125" width="9.140625" style="15"/>
-    <col min="5126" max="5132" width="7.28515625" style="15" customWidth="1"/>
-    <col min="5133" max="5376" width="9.140625" style="15"/>
-    <col min="5377" max="5377" width="2.85546875" style="15" customWidth="1"/>
-    <col min="5378" max="5378" width="4.42578125" style="15" customWidth="1"/>
-    <col min="5379" max="5379" width="9.140625" style="15"/>
-    <col min="5380" max="5380" width="15" style="15" customWidth="1"/>
-    <col min="5381" max="5381" width="9.140625" style="15"/>
-    <col min="5382" max="5388" width="7.28515625" style="15" customWidth="1"/>
-    <col min="5389" max="5632" width="9.140625" style="15"/>
-    <col min="5633" max="5633" width="2.85546875" style="15" customWidth="1"/>
-    <col min="5634" max="5634" width="4.42578125" style="15" customWidth="1"/>
-    <col min="5635" max="5635" width="9.140625" style="15"/>
-    <col min="5636" max="5636" width="15" style="15" customWidth="1"/>
-    <col min="5637" max="5637" width="9.140625" style="15"/>
-    <col min="5638" max="5644" width="7.28515625" style="15" customWidth="1"/>
-    <col min="5645" max="5888" width="9.140625" style="15"/>
-    <col min="5889" max="5889" width="2.85546875" style="15" customWidth="1"/>
-    <col min="5890" max="5890" width="4.42578125" style="15" customWidth="1"/>
-    <col min="5891" max="5891" width="9.140625" style="15"/>
-    <col min="5892" max="5892" width="15" style="15" customWidth="1"/>
-    <col min="5893" max="5893" width="9.140625" style="15"/>
-    <col min="5894" max="5900" width="7.28515625" style="15" customWidth="1"/>
-    <col min="5901" max="6144" width="9.140625" style="15"/>
-    <col min="6145" max="6145" width="2.85546875" style="15" customWidth="1"/>
-    <col min="6146" max="6146" width="4.42578125" style="15" customWidth="1"/>
-    <col min="6147" max="6147" width="9.140625" style="15"/>
-    <col min="6148" max="6148" width="15" style="15" customWidth="1"/>
-    <col min="6149" max="6149" width="9.140625" style="15"/>
-    <col min="6150" max="6156" width="7.28515625" style="15" customWidth="1"/>
-    <col min="6157" max="6400" width="9.140625" style="15"/>
-    <col min="6401" max="6401" width="2.85546875" style="15" customWidth="1"/>
-    <col min="6402" max="6402" width="4.42578125" style="15" customWidth="1"/>
-    <col min="6403" max="6403" width="9.140625" style="15"/>
-    <col min="6404" max="6404" width="15" style="15" customWidth="1"/>
-    <col min="6405" max="6405" width="9.140625" style="15"/>
-    <col min="6406" max="6412" width="7.28515625" style="15" customWidth="1"/>
-    <col min="6413" max="6656" width="9.140625" style="15"/>
-    <col min="6657" max="6657" width="2.85546875" style="15" customWidth="1"/>
-    <col min="6658" max="6658" width="4.42578125" style="15" customWidth="1"/>
-    <col min="6659" max="6659" width="9.140625" style="15"/>
-    <col min="6660" max="6660" width="15" style="15" customWidth="1"/>
-    <col min="6661" max="6661" width="9.140625" style="15"/>
-    <col min="6662" max="6668" width="7.28515625" style="15" customWidth="1"/>
-    <col min="6669" max="6912" width="9.140625" style="15"/>
-    <col min="6913" max="6913" width="2.85546875" style="15" customWidth="1"/>
-    <col min="6914" max="6914" width="4.42578125" style="15" customWidth="1"/>
-    <col min="6915" max="6915" width="9.140625" style="15"/>
-    <col min="6916" max="6916" width="15" style="15" customWidth="1"/>
-    <col min="6917" max="6917" width="9.140625" style="15"/>
-    <col min="6918" max="6924" width="7.28515625" style="15" customWidth="1"/>
-    <col min="6925" max="7168" width="9.140625" style="15"/>
-    <col min="7169" max="7169" width="2.85546875" style="15" customWidth="1"/>
-    <col min="7170" max="7170" width="4.42578125" style="15" customWidth="1"/>
-    <col min="7171" max="7171" width="9.140625" style="15"/>
-    <col min="7172" max="7172" width="15" style="15" customWidth="1"/>
-    <col min="7173" max="7173" width="9.140625" style="15"/>
-    <col min="7174" max="7180" width="7.28515625" style="15" customWidth="1"/>
-    <col min="7181" max="7424" width="9.140625" style="15"/>
-    <col min="7425" max="7425" width="2.85546875" style="15" customWidth="1"/>
-    <col min="7426" max="7426" width="4.42578125" style="15" customWidth="1"/>
-    <col min="7427" max="7427" width="9.140625" style="15"/>
-    <col min="7428" max="7428" width="15" style="15" customWidth="1"/>
-    <col min="7429" max="7429" width="9.140625" style="15"/>
-    <col min="7430" max="7436" width="7.28515625" style="15" customWidth="1"/>
-    <col min="7437" max="7680" width="9.140625" style="15"/>
-    <col min="7681" max="7681" width="2.85546875" style="15" customWidth="1"/>
-    <col min="7682" max="7682" width="4.42578125" style="15" customWidth="1"/>
-    <col min="7683" max="7683" width="9.140625" style="15"/>
-    <col min="7684" max="7684" width="15" style="15" customWidth="1"/>
-    <col min="7685" max="7685" width="9.140625" style="15"/>
-    <col min="7686" max="7692" width="7.28515625" style="15" customWidth="1"/>
-    <col min="7693" max="7936" width="9.140625" style="15"/>
-    <col min="7937" max="7937" width="2.85546875" style="15" customWidth="1"/>
-    <col min="7938" max="7938" width="4.42578125" style="15" customWidth="1"/>
-    <col min="7939" max="7939" width="9.140625" style="15"/>
-    <col min="7940" max="7940" width="15" style="15" customWidth="1"/>
-    <col min="7941" max="7941" width="9.140625" style="15"/>
-    <col min="7942" max="7948" width="7.28515625" style="15" customWidth="1"/>
-    <col min="7949" max="8192" width="9.140625" style="15"/>
-    <col min="8193" max="8193" width="2.85546875" style="15" customWidth="1"/>
-    <col min="8194" max="8194" width="4.42578125" style="15" customWidth="1"/>
-    <col min="8195" max="8195" width="9.140625" style="15"/>
-    <col min="8196" max="8196" width="15" style="15" customWidth="1"/>
-    <col min="8197" max="8197" width="9.140625" style="15"/>
-    <col min="8198" max="8204" width="7.28515625" style="15" customWidth="1"/>
-    <col min="8205" max="8448" width="9.140625" style="15"/>
-    <col min="8449" max="8449" width="2.85546875" style="15" customWidth="1"/>
-    <col min="8450" max="8450" width="4.42578125" style="15" customWidth="1"/>
-    <col min="8451" max="8451" width="9.140625" style="15"/>
-    <col min="8452" max="8452" width="15" style="15" customWidth="1"/>
-    <col min="8453" max="8453" width="9.140625" style="15"/>
-    <col min="8454" max="8460" width="7.28515625" style="15" customWidth="1"/>
-    <col min="8461" max="8704" width="9.140625" style="15"/>
-    <col min="8705" max="8705" width="2.85546875" style="15" customWidth="1"/>
-    <col min="8706" max="8706" width="4.42578125" style="15" customWidth="1"/>
-    <col min="8707" max="8707" width="9.140625" style="15"/>
-    <col min="8708" max="8708" width="15" style="15" customWidth="1"/>
-    <col min="8709" max="8709" width="9.140625" style="15"/>
-    <col min="8710" max="8716" width="7.28515625" style="15" customWidth="1"/>
-    <col min="8717" max="8960" width="9.140625" style="15"/>
-    <col min="8961" max="8961" width="2.85546875" style="15" customWidth="1"/>
-    <col min="8962" max="8962" width="4.42578125" style="15" customWidth="1"/>
-    <col min="8963" max="8963" width="9.140625" style="15"/>
-    <col min="8964" max="8964" width="15" style="15" customWidth="1"/>
-    <col min="8965" max="8965" width="9.140625" style="15"/>
-    <col min="8966" max="8972" width="7.28515625" style="15" customWidth="1"/>
-    <col min="8973" max="9216" width="9.140625" style="15"/>
-    <col min="9217" max="9217" width="2.85546875" style="15" customWidth="1"/>
-    <col min="9218" max="9218" width="4.42578125" style="15" customWidth="1"/>
-    <col min="9219" max="9219" width="9.140625" style="15"/>
-    <col min="9220" max="9220" width="15" style="15" customWidth="1"/>
-    <col min="9221" max="9221" width="9.140625" style="15"/>
-    <col min="9222" max="9228" width="7.28515625" style="15" customWidth="1"/>
-    <col min="9229" max="9472" width="9.140625" style="15"/>
-    <col min="9473" max="9473" width="2.85546875" style="15" customWidth="1"/>
-    <col min="9474" max="9474" width="4.42578125" style="15" customWidth="1"/>
-    <col min="9475" max="9475" width="9.140625" style="15"/>
-    <col min="9476" max="9476" width="15" style="15" customWidth="1"/>
-    <col min="9477" max="9477" width="9.140625" style="15"/>
-    <col min="9478" max="9484" width="7.28515625" style="15" customWidth="1"/>
-    <col min="9485" max="9728" width="9.140625" style="15"/>
-    <col min="9729" max="9729" width="2.85546875" style="15" customWidth="1"/>
-    <col min="9730" max="9730" width="4.42578125" style="15" customWidth="1"/>
-    <col min="9731" max="9731" width="9.140625" style="15"/>
-    <col min="9732" max="9732" width="15" style="15" customWidth="1"/>
-    <col min="9733" max="9733" width="9.140625" style="15"/>
-    <col min="9734" max="9740" width="7.28515625" style="15" customWidth="1"/>
-    <col min="9741" max="9984" width="9.140625" style="15"/>
-    <col min="9985" max="9985" width="2.85546875" style="15" customWidth="1"/>
-    <col min="9986" max="9986" width="4.42578125" style="15" customWidth="1"/>
-    <col min="9987" max="9987" width="9.140625" style="15"/>
-    <col min="9988" max="9988" width="15" style="15" customWidth="1"/>
-    <col min="9989" max="9989" width="9.140625" style="15"/>
-    <col min="9990" max="9996" width="7.28515625" style="15" customWidth="1"/>
-    <col min="9997" max="10240" width="9.140625" style="15"/>
-    <col min="10241" max="10241" width="2.85546875" style="15" customWidth="1"/>
-    <col min="10242" max="10242" width="4.42578125" style="15" customWidth="1"/>
-    <col min="10243" max="10243" width="9.140625" style="15"/>
-    <col min="10244" max="10244" width="15" style="15" customWidth="1"/>
-    <col min="10245" max="10245" width="9.140625" style="15"/>
-    <col min="10246" max="10252" width="7.28515625" style="15" customWidth="1"/>
-    <col min="10253" max="10496" width="9.140625" style="15"/>
-    <col min="10497" max="10497" width="2.85546875" style="15" customWidth="1"/>
-    <col min="10498" max="10498" width="4.42578125" style="15" customWidth="1"/>
-    <col min="10499" max="10499" width="9.140625" style="15"/>
-    <col min="10500" max="10500" width="15" style="15" customWidth="1"/>
-    <col min="10501" max="10501" width="9.140625" style="15"/>
-    <col min="10502" max="10508" width="7.28515625" style="15" customWidth="1"/>
-    <col min="10509" max="10752" width="9.140625" style="15"/>
-    <col min="10753" max="10753" width="2.85546875" style="15" customWidth="1"/>
-    <col min="10754" max="10754" width="4.42578125" style="15" customWidth="1"/>
-    <col min="10755" max="10755" width="9.140625" style="15"/>
-    <col min="10756" max="10756" width="15" style="15" customWidth="1"/>
-    <col min="10757" max="10757" width="9.140625" style="15"/>
-    <col min="10758" max="10764" width="7.28515625" style="15" customWidth="1"/>
-    <col min="10765" max="11008" width="9.140625" style="15"/>
-    <col min="11009" max="11009" width="2.85546875" style="15" customWidth="1"/>
-    <col min="11010" max="11010" width="4.42578125" style="15" customWidth="1"/>
-    <col min="11011" max="11011" width="9.140625" style="15"/>
-    <col min="11012" max="11012" width="15" style="15" customWidth="1"/>
-    <col min="11013" max="11013" width="9.140625" style="15"/>
-    <col min="11014" max="11020" width="7.28515625" style="15" customWidth="1"/>
-    <col min="11021" max="11264" width="9.140625" style="15"/>
-    <col min="11265" max="11265" width="2.85546875" style="15" customWidth="1"/>
-    <col min="11266" max="11266" width="4.42578125" style="15" customWidth="1"/>
-    <col min="11267" max="11267" width="9.140625" style="15"/>
-    <col min="11268" max="11268" width="15" style="15" customWidth="1"/>
-    <col min="11269" max="11269" width="9.140625" style="15"/>
-    <col min="11270" max="11276" width="7.28515625" style="15" customWidth="1"/>
-    <col min="11277" max="11520" width="9.140625" style="15"/>
-    <col min="11521" max="11521" width="2.85546875" style="15" customWidth="1"/>
-    <col min="11522" max="11522" width="4.42578125" style="15" customWidth="1"/>
-    <col min="11523" max="11523" width="9.140625" style="15"/>
-    <col min="11524" max="11524" width="15" style="15" customWidth="1"/>
-    <col min="11525" max="11525" width="9.140625" style="15"/>
-    <col min="11526" max="11532" width="7.28515625" style="15" customWidth="1"/>
-    <col min="11533" max="11776" width="9.140625" style="15"/>
-    <col min="11777" max="11777" width="2.85546875" style="15" customWidth="1"/>
-    <col min="11778" max="11778" width="4.42578125" style="15" customWidth="1"/>
-    <col min="11779" max="11779" width="9.140625" style="15"/>
-    <col min="11780" max="11780" width="15" style="15" customWidth="1"/>
-    <col min="11781" max="11781" width="9.140625" style="15"/>
-    <col min="11782" max="11788" width="7.28515625" style="15" customWidth="1"/>
-    <col min="11789" max="12032" width="9.140625" style="15"/>
-    <col min="12033" max="12033" width="2.85546875" style="15" customWidth="1"/>
-    <col min="12034" max="12034" width="4.42578125" style="15" customWidth="1"/>
-    <col min="12035" max="12035" width="9.140625" style="15"/>
-    <col min="12036" max="12036" width="15" style="15" customWidth="1"/>
-    <col min="12037" max="12037" width="9.140625" style="15"/>
-    <col min="12038" max="12044" width="7.28515625" style="15" customWidth="1"/>
-    <col min="12045" max="12288" width="9.140625" style="15"/>
-    <col min="12289" max="12289" width="2.85546875" style="15" customWidth="1"/>
-    <col min="12290" max="12290" width="4.42578125" style="15" customWidth="1"/>
-    <col min="12291" max="12291" width="9.140625" style="15"/>
-    <col min="12292" max="12292" width="15" style="15" customWidth="1"/>
-    <col min="12293" max="12293" width="9.140625" style="15"/>
-    <col min="12294" max="12300" width="7.28515625" style="15" customWidth="1"/>
-    <col min="12301" max="12544" width="9.140625" style="15"/>
-    <col min="12545" max="12545" width="2.85546875" style="15" customWidth="1"/>
-    <col min="12546" max="12546" width="4.42578125" style="15" customWidth="1"/>
-    <col min="12547" max="12547" width="9.140625" style="15"/>
-    <col min="12548" max="12548" width="15" style="15" customWidth="1"/>
-    <col min="12549" max="12549" width="9.140625" style="15"/>
-    <col min="12550" max="12556" width="7.28515625" style="15" customWidth="1"/>
-    <col min="12557" max="12800" width="9.140625" style="15"/>
-    <col min="12801" max="12801" width="2.85546875" style="15" customWidth="1"/>
-    <col min="12802" max="12802" width="4.42578125" style="15" customWidth="1"/>
-    <col min="12803" max="12803" width="9.140625" style="15"/>
-    <col min="12804" max="12804" width="15" style="15" customWidth="1"/>
-    <col min="12805" max="12805" width="9.140625" style="15"/>
-    <col min="12806" max="12812" width="7.28515625" style="15" customWidth="1"/>
-    <col min="12813" max="13056" width="9.140625" style="15"/>
-    <col min="13057" max="13057" width="2.85546875" style="15" customWidth="1"/>
-    <col min="13058" max="13058" width="4.42578125" style="15" customWidth="1"/>
-    <col min="13059" max="13059" width="9.140625" style="15"/>
-    <col min="13060" max="13060" width="15" style="15" customWidth="1"/>
-    <col min="13061" max="13061" width="9.140625" style="15"/>
-    <col min="13062" max="13068" width="7.28515625" style="15" customWidth="1"/>
-    <col min="13069" max="13312" width="9.140625" style="15"/>
-    <col min="13313" max="13313" width="2.85546875" style="15" customWidth="1"/>
-    <col min="13314" max="13314" width="4.42578125" style="15" customWidth="1"/>
-    <col min="13315" max="13315" width="9.140625" style="15"/>
-    <col min="13316" max="13316" width="15" style="15" customWidth="1"/>
-    <col min="13317" max="13317" width="9.140625" style="15"/>
-    <col min="13318" max="13324" width="7.28515625" style="15" customWidth="1"/>
-    <col min="13325" max="13568" width="9.140625" style="15"/>
-    <col min="13569" max="13569" width="2.85546875" style="15" customWidth="1"/>
-    <col min="13570" max="13570" width="4.42578125" style="15" customWidth="1"/>
-    <col min="13571" max="13571" width="9.140625" style="15"/>
-    <col min="13572" max="13572" width="15" style="15" customWidth="1"/>
-    <col min="13573" max="13573" width="9.140625" style="15"/>
-    <col min="13574" max="13580" width="7.28515625" style="15" customWidth="1"/>
-    <col min="13581" max="13824" width="9.140625" style="15"/>
-    <col min="13825" max="13825" width="2.85546875" style="15" customWidth="1"/>
-    <col min="13826" max="13826" width="4.42578125" style="15" customWidth="1"/>
-    <col min="13827" max="13827" width="9.140625" style="15"/>
-    <col min="13828" max="13828" width="15" style="15" customWidth="1"/>
-    <col min="13829" max="13829" width="9.140625" style="15"/>
-    <col min="13830" max="13836" width="7.28515625" style="15" customWidth="1"/>
-    <col min="13837" max="14080" width="9.140625" style="15"/>
-    <col min="14081" max="14081" width="2.85546875" style="15" customWidth="1"/>
-    <col min="14082" max="14082" width="4.42578125" style="15" customWidth="1"/>
-    <col min="14083" max="14083" width="9.140625" style="15"/>
-    <col min="14084" max="14084" width="15" style="15" customWidth="1"/>
-    <col min="14085" max="14085" width="9.140625" style="15"/>
-    <col min="14086" max="14092" width="7.28515625" style="15" customWidth="1"/>
-    <col min="14093" max="14336" width="9.140625" style="15"/>
-    <col min="14337" max="14337" width="2.85546875" style="15" customWidth="1"/>
-    <col min="14338" max="14338" width="4.42578125" style="15" customWidth="1"/>
-    <col min="14339" max="14339" width="9.140625" style="15"/>
-    <col min="14340" max="14340" width="15" style="15" customWidth="1"/>
-    <col min="14341" max="14341" width="9.140625" style="15"/>
-    <col min="14342" max="14348" width="7.28515625" style="15" customWidth="1"/>
-    <col min="14349" max="14592" width="9.140625" style="15"/>
-    <col min="14593" max="14593" width="2.85546875" style="15" customWidth="1"/>
-    <col min="14594" max="14594" width="4.42578125" style="15" customWidth="1"/>
-    <col min="14595" max="14595" width="9.140625" style="15"/>
-    <col min="14596" max="14596" width="15" style="15" customWidth="1"/>
-    <col min="14597" max="14597" width="9.140625" style="15"/>
-    <col min="14598" max="14604" width="7.28515625" style="15" customWidth="1"/>
-    <col min="14605" max="14848" width="9.140625" style="15"/>
-    <col min="14849" max="14849" width="2.85546875" style="15" customWidth="1"/>
-    <col min="14850" max="14850" width="4.42578125" style="15" customWidth="1"/>
-    <col min="14851" max="14851" width="9.140625" style="15"/>
-    <col min="14852" max="14852" width="15" style="15" customWidth="1"/>
-    <col min="14853" max="14853" width="9.140625" style="15"/>
-    <col min="14854" max="14860" width="7.28515625" style="15" customWidth="1"/>
-    <col min="14861" max="15104" width="9.140625" style="15"/>
-    <col min="15105" max="15105" width="2.85546875" style="15" customWidth="1"/>
-    <col min="15106" max="15106" width="4.42578125" style="15" customWidth="1"/>
-    <col min="15107" max="15107" width="9.140625" style="15"/>
-    <col min="15108" max="15108" width="15" style="15" customWidth="1"/>
-    <col min="15109" max="15109" width="9.140625" style="15"/>
-    <col min="15110" max="15116" width="7.28515625" style="15" customWidth="1"/>
-    <col min="15117" max="15360" width="9.140625" style="15"/>
-    <col min="15361" max="15361" width="2.85546875" style="15" customWidth="1"/>
-    <col min="15362" max="15362" width="4.42578125" style="15" customWidth="1"/>
-    <col min="15363" max="15363" width="9.140625" style="15"/>
-    <col min="15364" max="15364" width="15" style="15" customWidth="1"/>
-    <col min="15365" max="15365" width="9.140625" style="15"/>
-    <col min="15366" max="15372" width="7.28515625" style="15" customWidth="1"/>
-    <col min="15373" max="15616" width="9.140625" style="15"/>
-    <col min="15617" max="15617" width="2.85546875" style="15" customWidth="1"/>
-    <col min="15618" max="15618" width="4.42578125" style="15" customWidth="1"/>
-    <col min="15619" max="15619" width="9.140625" style="15"/>
-    <col min="15620" max="15620" width="15" style="15" customWidth="1"/>
-    <col min="15621" max="15621" width="9.140625" style="15"/>
-    <col min="15622" max="15628" width="7.28515625" style="15" customWidth="1"/>
-    <col min="15629" max="15872" width="9.140625" style="15"/>
-    <col min="15873" max="15873" width="2.85546875" style="15" customWidth="1"/>
-    <col min="15874" max="15874" width="4.42578125" style="15" customWidth="1"/>
-    <col min="15875" max="15875" width="9.140625" style="15"/>
-    <col min="15876" max="15876" width="15" style="15" customWidth="1"/>
-    <col min="15877" max="15877" width="9.140625" style="15"/>
-    <col min="15878" max="15884" width="7.28515625" style="15" customWidth="1"/>
-    <col min="15885" max="16128" width="9.140625" style="15"/>
-    <col min="16129" max="16129" width="2.85546875" style="15" customWidth="1"/>
-    <col min="16130" max="16130" width="4.42578125" style="15" customWidth="1"/>
-    <col min="16131" max="16131" width="9.140625" style="15"/>
-    <col min="16132" max="16132" width="15" style="15" customWidth="1"/>
-    <col min="16133" max="16133" width="9.140625" style="15"/>
-    <col min="16134" max="16140" width="7.28515625" style="15" customWidth="1"/>
-    <col min="16141" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="3.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="38" customWidth="1"/>
+    <col min="3" max="4" width="7.85546875" style="26" customWidth="1"/>
+    <col min="5" max="8" width="4.5703125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="26" customWidth="1"/>
+    <col min="10" max="11" width="4.5703125" style="26" customWidth="1"/>
+    <col min="12" max="12" width="11" style="26" customWidth="1"/>
+    <col min="13" max="14" width="8" style="26" customWidth="1"/>
+    <col min="15" max="16" width="7" style="26" customWidth="1"/>
+    <col min="17" max="256" width="9.140625" style="26"/>
+    <col min="257" max="257" width="2.85546875" style="26" customWidth="1"/>
+    <col min="258" max="258" width="4.42578125" style="26" customWidth="1"/>
+    <col min="259" max="259" width="9.140625" style="26"/>
+    <col min="260" max="260" width="15" style="26" customWidth="1"/>
+    <col min="261" max="261" width="9.140625" style="26"/>
+    <col min="262" max="268" width="7.28515625" style="26" customWidth="1"/>
+    <col min="269" max="512" width="9.140625" style="26"/>
+    <col min="513" max="513" width="2.85546875" style="26" customWidth="1"/>
+    <col min="514" max="514" width="4.42578125" style="26" customWidth="1"/>
+    <col min="515" max="515" width="9.140625" style="26"/>
+    <col min="516" max="516" width="15" style="26" customWidth="1"/>
+    <col min="517" max="517" width="9.140625" style="26"/>
+    <col min="518" max="524" width="7.28515625" style="26" customWidth="1"/>
+    <col min="525" max="768" width="9.140625" style="26"/>
+    <col min="769" max="769" width="2.85546875" style="26" customWidth="1"/>
+    <col min="770" max="770" width="4.42578125" style="26" customWidth="1"/>
+    <col min="771" max="771" width="9.140625" style="26"/>
+    <col min="772" max="772" width="15" style="26" customWidth="1"/>
+    <col min="773" max="773" width="9.140625" style="26"/>
+    <col min="774" max="780" width="7.28515625" style="26" customWidth="1"/>
+    <col min="781" max="1024" width="9.140625" style="26"/>
+    <col min="1025" max="1025" width="2.85546875" style="26" customWidth="1"/>
+    <col min="1026" max="1026" width="4.42578125" style="26" customWidth="1"/>
+    <col min="1027" max="1027" width="9.140625" style="26"/>
+    <col min="1028" max="1028" width="15" style="26" customWidth="1"/>
+    <col min="1029" max="1029" width="9.140625" style="26"/>
+    <col min="1030" max="1036" width="7.28515625" style="26" customWidth="1"/>
+    <col min="1037" max="1280" width="9.140625" style="26"/>
+    <col min="1281" max="1281" width="2.85546875" style="26" customWidth="1"/>
+    <col min="1282" max="1282" width="4.42578125" style="26" customWidth="1"/>
+    <col min="1283" max="1283" width="9.140625" style="26"/>
+    <col min="1284" max="1284" width="15" style="26" customWidth="1"/>
+    <col min="1285" max="1285" width="9.140625" style="26"/>
+    <col min="1286" max="1292" width="7.28515625" style="26" customWidth="1"/>
+    <col min="1293" max="1536" width="9.140625" style="26"/>
+    <col min="1537" max="1537" width="2.85546875" style="26" customWidth="1"/>
+    <col min="1538" max="1538" width="4.42578125" style="26" customWidth="1"/>
+    <col min="1539" max="1539" width="9.140625" style="26"/>
+    <col min="1540" max="1540" width="15" style="26" customWidth="1"/>
+    <col min="1541" max="1541" width="9.140625" style="26"/>
+    <col min="1542" max="1548" width="7.28515625" style="26" customWidth="1"/>
+    <col min="1549" max="1792" width="9.140625" style="26"/>
+    <col min="1793" max="1793" width="2.85546875" style="26" customWidth="1"/>
+    <col min="1794" max="1794" width="4.42578125" style="26" customWidth="1"/>
+    <col min="1795" max="1795" width="9.140625" style="26"/>
+    <col min="1796" max="1796" width="15" style="26" customWidth="1"/>
+    <col min="1797" max="1797" width="9.140625" style="26"/>
+    <col min="1798" max="1804" width="7.28515625" style="26" customWidth="1"/>
+    <col min="1805" max="2048" width="9.140625" style="26"/>
+    <col min="2049" max="2049" width="2.85546875" style="26" customWidth="1"/>
+    <col min="2050" max="2050" width="4.42578125" style="26" customWidth="1"/>
+    <col min="2051" max="2051" width="9.140625" style="26"/>
+    <col min="2052" max="2052" width="15" style="26" customWidth="1"/>
+    <col min="2053" max="2053" width="9.140625" style="26"/>
+    <col min="2054" max="2060" width="7.28515625" style="26" customWidth="1"/>
+    <col min="2061" max="2304" width="9.140625" style="26"/>
+    <col min="2305" max="2305" width="2.85546875" style="26" customWidth="1"/>
+    <col min="2306" max="2306" width="4.42578125" style="26" customWidth="1"/>
+    <col min="2307" max="2307" width="9.140625" style="26"/>
+    <col min="2308" max="2308" width="15" style="26" customWidth="1"/>
+    <col min="2309" max="2309" width="9.140625" style="26"/>
+    <col min="2310" max="2316" width="7.28515625" style="26" customWidth="1"/>
+    <col min="2317" max="2560" width="9.140625" style="26"/>
+    <col min="2561" max="2561" width="2.85546875" style="26" customWidth="1"/>
+    <col min="2562" max="2562" width="4.42578125" style="26" customWidth="1"/>
+    <col min="2563" max="2563" width="9.140625" style="26"/>
+    <col min="2564" max="2564" width="15" style="26" customWidth="1"/>
+    <col min="2565" max="2565" width="9.140625" style="26"/>
+    <col min="2566" max="2572" width="7.28515625" style="26" customWidth="1"/>
+    <col min="2573" max="2816" width="9.140625" style="26"/>
+    <col min="2817" max="2817" width="2.85546875" style="26" customWidth="1"/>
+    <col min="2818" max="2818" width="4.42578125" style="26" customWidth="1"/>
+    <col min="2819" max="2819" width="9.140625" style="26"/>
+    <col min="2820" max="2820" width="15" style="26" customWidth="1"/>
+    <col min="2821" max="2821" width="9.140625" style="26"/>
+    <col min="2822" max="2828" width="7.28515625" style="26" customWidth="1"/>
+    <col min="2829" max="3072" width="9.140625" style="26"/>
+    <col min="3073" max="3073" width="2.85546875" style="26" customWidth="1"/>
+    <col min="3074" max="3074" width="4.42578125" style="26" customWidth="1"/>
+    <col min="3075" max="3075" width="9.140625" style="26"/>
+    <col min="3076" max="3076" width="15" style="26" customWidth="1"/>
+    <col min="3077" max="3077" width="9.140625" style="26"/>
+    <col min="3078" max="3084" width="7.28515625" style="26" customWidth="1"/>
+    <col min="3085" max="3328" width="9.140625" style="26"/>
+    <col min="3329" max="3329" width="2.85546875" style="26" customWidth="1"/>
+    <col min="3330" max="3330" width="4.42578125" style="26" customWidth="1"/>
+    <col min="3331" max="3331" width="9.140625" style="26"/>
+    <col min="3332" max="3332" width="15" style="26" customWidth="1"/>
+    <col min="3333" max="3333" width="9.140625" style="26"/>
+    <col min="3334" max="3340" width="7.28515625" style="26" customWidth="1"/>
+    <col min="3341" max="3584" width="9.140625" style="26"/>
+    <col min="3585" max="3585" width="2.85546875" style="26" customWidth="1"/>
+    <col min="3586" max="3586" width="4.42578125" style="26" customWidth="1"/>
+    <col min="3587" max="3587" width="9.140625" style="26"/>
+    <col min="3588" max="3588" width="15" style="26" customWidth="1"/>
+    <col min="3589" max="3589" width="9.140625" style="26"/>
+    <col min="3590" max="3596" width="7.28515625" style="26" customWidth="1"/>
+    <col min="3597" max="3840" width="9.140625" style="26"/>
+    <col min="3841" max="3841" width="2.85546875" style="26" customWidth="1"/>
+    <col min="3842" max="3842" width="4.42578125" style="26" customWidth="1"/>
+    <col min="3843" max="3843" width="9.140625" style="26"/>
+    <col min="3844" max="3844" width="15" style="26" customWidth="1"/>
+    <col min="3845" max="3845" width="9.140625" style="26"/>
+    <col min="3846" max="3852" width="7.28515625" style="26" customWidth="1"/>
+    <col min="3853" max="4096" width="9.140625" style="26"/>
+    <col min="4097" max="4097" width="2.85546875" style="26" customWidth="1"/>
+    <col min="4098" max="4098" width="4.42578125" style="26" customWidth="1"/>
+    <col min="4099" max="4099" width="9.140625" style="26"/>
+    <col min="4100" max="4100" width="15" style="26" customWidth="1"/>
+    <col min="4101" max="4101" width="9.140625" style="26"/>
+    <col min="4102" max="4108" width="7.28515625" style="26" customWidth="1"/>
+    <col min="4109" max="4352" width="9.140625" style="26"/>
+    <col min="4353" max="4353" width="2.85546875" style="26" customWidth="1"/>
+    <col min="4354" max="4354" width="4.42578125" style="26" customWidth="1"/>
+    <col min="4355" max="4355" width="9.140625" style="26"/>
+    <col min="4356" max="4356" width="15" style="26" customWidth="1"/>
+    <col min="4357" max="4357" width="9.140625" style="26"/>
+    <col min="4358" max="4364" width="7.28515625" style="26" customWidth="1"/>
+    <col min="4365" max="4608" width="9.140625" style="26"/>
+    <col min="4609" max="4609" width="2.85546875" style="26" customWidth="1"/>
+    <col min="4610" max="4610" width="4.42578125" style="26" customWidth="1"/>
+    <col min="4611" max="4611" width="9.140625" style="26"/>
+    <col min="4612" max="4612" width="15" style="26" customWidth="1"/>
+    <col min="4613" max="4613" width="9.140625" style="26"/>
+    <col min="4614" max="4620" width="7.28515625" style="26" customWidth="1"/>
+    <col min="4621" max="4864" width="9.140625" style="26"/>
+    <col min="4865" max="4865" width="2.85546875" style="26" customWidth="1"/>
+    <col min="4866" max="4866" width="4.42578125" style="26" customWidth="1"/>
+    <col min="4867" max="4867" width="9.140625" style="26"/>
+    <col min="4868" max="4868" width="15" style="26" customWidth="1"/>
+    <col min="4869" max="4869" width="9.140625" style="26"/>
+    <col min="4870" max="4876" width="7.28515625" style="26" customWidth="1"/>
+    <col min="4877" max="5120" width="9.140625" style="26"/>
+    <col min="5121" max="5121" width="2.85546875" style="26" customWidth="1"/>
+    <col min="5122" max="5122" width="4.42578125" style="26" customWidth="1"/>
+    <col min="5123" max="5123" width="9.140625" style="26"/>
+    <col min="5124" max="5124" width="15" style="26" customWidth="1"/>
+    <col min="5125" max="5125" width="9.140625" style="26"/>
+    <col min="5126" max="5132" width="7.28515625" style="26" customWidth="1"/>
+    <col min="5133" max="5376" width="9.140625" style="26"/>
+    <col min="5377" max="5377" width="2.85546875" style="26" customWidth="1"/>
+    <col min="5378" max="5378" width="4.42578125" style="26" customWidth="1"/>
+    <col min="5379" max="5379" width="9.140625" style="26"/>
+    <col min="5380" max="5380" width="15" style="26" customWidth="1"/>
+    <col min="5381" max="5381" width="9.140625" style="26"/>
+    <col min="5382" max="5388" width="7.28515625" style="26" customWidth="1"/>
+    <col min="5389" max="5632" width="9.140625" style="26"/>
+    <col min="5633" max="5633" width="2.85546875" style="26" customWidth="1"/>
+    <col min="5634" max="5634" width="4.42578125" style="26" customWidth="1"/>
+    <col min="5635" max="5635" width="9.140625" style="26"/>
+    <col min="5636" max="5636" width="15" style="26" customWidth="1"/>
+    <col min="5637" max="5637" width="9.140625" style="26"/>
+    <col min="5638" max="5644" width="7.28515625" style="26" customWidth="1"/>
+    <col min="5645" max="5888" width="9.140625" style="26"/>
+    <col min="5889" max="5889" width="2.85546875" style="26" customWidth="1"/>
+    <col min="5890" max="5890" width="4.42578125" style="26" customWidth="1"/>
+    <col min="5891" max="5891" width="9.140625" style="26"/>
+    <col min="5892" max="5892" width="15" style="26" customWidth="1"/>
+    <col min="5893" max="5893" width="9.140625" style="26"/>
+    <col min="5894" max="5900" width="7.28515625" style="26" customWidth="1"/>
+    <col min="5901" max="6144" width="9.140625" style="26"/>
+    <col min="6145" max="6145" width="2.85546875" style="26" customWidth="1"/>
+    <col min="6146" max="6146" width="4.42578125" style="26" customWidth="1"/>
+    <col min="6147" max="6147" width="9.140625" style="26"/>
+    <col min="6148" max="6148" width="15" style="26" customWidth="1"/>
+    <col min="6149" max="6149" width="9.140625" style="26"/>
+    <col min="6150" max="6156" width="7.28515625" style="26" customWidth="1"/>
+    <col min="6157" max="6400" width="9.140625" style="26"/>
+    <col min="6401" max="6401" width="2.85546875" style="26" customWidth="1"/>
+    <col min="6402" max="6402" width="4.42578125" style="26" customWidth="1"/>
+    <col min="6403" max="6403" width="9.140625" style="26"/>
+    <col min="6404" max="6404" width="15" style="26" customWidth="1"/>
+    <col min="6405" max="6405" width="9.140625" style="26"/>
+    <col min="6406" max="6412" width="7.28515625" style="26" customWidth="1"/>
+    <col min="6413" max="6656" width="9.140625" style="26"/>
+    <col min="6657" max="6657" width="2.85546875" style="26" customWidth="1"/>
+    <col min="6658" max="6658" width="4.42578125" style="26" customWidth="1"/>
+    <col min="6659" max="6659" width="9.140625" style="26"/>
+    <col min="6660" max="6660" width="15" style="26" customWidth="1"/>
+    <col min="6661" max="6661" width="9.140625" style="26"/>
+    <col min="6662" max="6668" width="7.28515625" style="26" customWidth="1"/>
+    <col min="6669" max="6912" width="9.140625" style="26"/>
+    <col min="6913" max="6913" width="2.85546875" style="26" customWidth="1"/>
+    <col min="6914" max="6914" width="4.42578125" style="26" customWidth="1"/>
+    <col min="6915" max="6915" width="9.140625" style="26"/>
+    <col min="6916" max="6916" width="15" style="26" customWidth="1"/>
+    <col min="6917" max="6917" width="9.140625" style="26"/>
+    <col min="6918" max="6924" width="7.28515625" style="26" customWidth="1"/>
+    <col min="6925" max="7168" width="9.140625" style="26"/>
+    <col min="7169" max="7169" width="2.85546875" style="26" customWidth="1"/>
+    <col min="7170" max="7170" width="4.42578125" style="26" customWidth="1"/>
+    <col min="7171" max="7171" width="9.140625" style="26"/>
+    <col min="7172" max="7172" width="15" style="26" customWidth="1"/>
+    <col min="7173" max="7173" width="9.140625" style="26"/>
+    <col min="7174" max="7180" width="7.28515625" style="26" customWidth="1"/>
+    <col min="7181" max="7424" width="9.140625" style="26"/>
+    <col min="7425" max="7425" width="2.85546875" style="26" customWidth="1"/>
+    <col min="7426" max="7426" width="4.42578125" style="26" customWidth="1"/>
+    <col min="7427" max="7427" width="9.140625" style="26"/>
+    <col min="7428" max="7428" width="15" style="26" customWidth="1"/>
+    <col min="7429" max="7429" width="9.140625" style="26"/>
+    <col min="7430" max="7436" width="7.28515625" style="26" customWidth="1"/>
+    <col min="7437" max="7680" width="9.140625" style="26"/>
+    <col min="7681" max="7681" width="2.85546875" style="26" customWidth="1"/>
+    <col min="7682" max="7682" width="4.42578125" style="26" customWidth="1"/>
+    <col min="7683" max="7683" width="9.140625" style="26"/>
+    <col min="7684" max="7684" width="15" style="26" customWidth="1"/>
+    <col min="7685" max="7685" width="9.140625" style="26"/>
+    <col min="7686" max="7692" width="7.28515625" style="26" customWidth="1"/>
+    <col min="7693" max="7936" width="9.140625" style="26"/>
+    <col min="7937" max="7937" width="2.85546875" style="26" customWidth="1"/>
+    <col min="7938" max="7938" width="4.42578125" style="26" customWidth="1"/>
+    <col min="7939" max="7939" width="9.140625" style="26"/>
+    <col min="7940" max="7940" width="15" style="26" customWidth="1"/>
+    <col min="7941" max="7941" width="9.140625" style="26"/>
+    <col min="7942" max="7948" width="7.28515625" style="26" customWidth="1"/>
+    <col min="7949" max="8192" width="9.140625" style="26"/>
+    <col min="8193" max="8193" width="2.85546875" style="26" customWidth="1"/>
+    <col min="8194" max="8194" width="4.42578125" style="26" customWidth="1"/>
+    <col min="8195" max="8195" width="9.140625" style="26"/>
+    <col min="8196" max="8196" width="15" style="26" customWidth="1"/>
+    <col min="8197" max="8197" width="9.140625" style="26"/>
+    <col min="8198" max="8204" width="7.28515625" style="26" customWidth="1"/>
+    <col min="8205" max="8448" width="9.140625" style="26"/>
+    <col min="8449" max="8449" width="2.85546875" style="26" customWidth="1"/>
+    <col min="8450" max="8450" width="4.42578125" style="26" customWidth="1"/>
+    <col min="8451" max="8451" width="9.140625" style="26"/>
+    <col min="8452" max="8452" width="15" style="26" customWidth="1"/>
+    <col min="8453" max="8453" width="9.140625" style="26"/>
+    <col min="8454" max="8460" width="7.28515625" style="26" customWidth="1"/>
+    <col min="8461" max="8704" width="9.140625" style="26"/>
+    <col min="8705" max="8705" width="2.85546875" style="26" customWidth="1"/>
+    <col min="8706" max="8706" width="4.42578125" style="26" customWidth="1"/>
+    <col min="8707" max="8707" width="9.140625" style="26"/>
+    <col min="8708" max="8708" width="15" style="26" customWidth="1"/>
+    <col min="8709" max="8709" width="9.140625" style="26"/>
+    <col min="8710" max="8716" width="7.28515625" style="26" customWidth="1"/>
+    <col min="8717" max="8960" width="9.140625" style="26"/>
+    <col min="8961" max="8961" width="2.85546875" style="26" customWidth="1"/>
+    <col min="8962" max="8962" width="4.42578125" style="26" customWidth="1"/>
+    <col min="8963" max="8963" width="9.140625" style="26"/>
+    <col min="8964" max="8964" width="15" style="26" customWidth="1"/>
+    <col min="8965" max="8965" width="9.140625" style="26"/>
+    <col min="8966" max="8972" width="7.28515625" style="26" customWidth="1"/>
+    <col min="8973" max="9216" width="9.140625" style="26"/>
+    <col min="9217" max="9217" width="2.85546875" style="26" customWidth="1"/>
+    <col min="9218" max="9218" width="4.42578125" style="26" customWidth="1"/>
+    <col min="9219" max="9219" width="9.140625" style="26"/>
+    <col min="9220" max="9220" width="15" style="26" customWidth="1"/>
+    <col min="9221" max="9221" width="9.140625" style="26"/>
+    <col min="9222" max="9228" width="7.28515625" style="26" customWidth="1"/>
+    <col min="9229" max="9472" width="9.140625" style="26"/>
+    <col min="9473" max="9473" width="2.85546875" style="26" customWidth="1"/>
+    <col min="9474" max="9474" width="4.42578125" style="26" customWidth="1"/>
+    <col min="9475" max="9475" width="9.140625" style="26"/>
+    <col min="9476" max="9476" width="15" style="26" customWidth="1"/>
+    <col min="9477" max="9477" width="9.140625" style="26"/>
+    <col min="9478" max="9484" width="7.28515625" style="26" customWidth="1"/>
+    <col min="9485" max="9728" width="9.140625" style="26"/>
+    <col min="9729" max="9729" width="2.85546875" style="26" customWidth="1"/>
+    <col min="9730" max="9730" width="4.42578125" style="26" customWidth="1"/>
+    <col min="9731" max="9731" width="9.140625" style="26"/>
+    <col min="9732" max="9732" width="15" style="26" customWidth="1"/>
+    <col min="9733" max="9733" width="9.140625" style="26"/>
+    <col min="9734" max="9740" width="7.28515625" style="26" customWidth="1"/>
+    <col min="9741" max="9984" width="9.140625" style="26"/>
+    <col min="9985" max="9985" width="2.85546875" style="26" customWidth="1"/>
+    <col min="9986" max="9986" width="4.42578125" style="26" customWidth="1"/>
+    <col min="9987" max="9987" width="9.140625" style="26"/>
+    <col min="9988" max="9988" width="15" style="26" customWidth="1"/>
+    <col min="9989" max="9989" width="9.140625" style="26"/>
+    <col min="9990" max="9996" width="7.28515625" style="26" customWidth="1"/>
+    <col min="9997" max="10240" width="9.140625" style="26"/>
+    <col min="10241" max="10241" width="2.85546875" style="26" customWidth="1"/>
+    <col min="10242" max="10242" width="4.42578125" style="26" customWidth="1"/>
+    <col min="10243" max="10243" width="9.140625" style="26"/>
+    <col min="10244" max="10244" width="15" style="26" customWidth="1"/>
+    <col min="10245" max="10245" width="9.140625" style="26"/>
+    <col min="10246" max="10252" width="7.28515625" style="26" customWidth="1"/>
+    <col min="10253" max="10496" width="9.140625" style="26"/>
+    <col min="10497" max="10497" width="2.85546875" style="26" customWidth="1"/>
+    <col min="10498" max="10498" width="4.42578125" style="26" customWidth="1"/>
+    <col min="10499" max="10499" width="9.140625" style="26"/>
+    <col min="10500" max="10500" width="15" style="26" customWidth="1"/>
+    <col min="10501" max="10501" width="9.140625" style="26"/>
+    <col min="10502" max="10508" width="7.28515625" style="26" customWidth="1"/>
+    <col min="10509" max="10752" width="9.140625" style="26"/>
+    <col min="10753" max="10753" width="2.85546875" style="26" customWidth="1"/>
+    <col min="10754" max="10754" width="4.42578125" style="26" customWidth="1"/>
+    <col min="10755" max="10755" width="9.140625" style="26"/>
+    <col min="10756" max="10756" width="15" style="26" customWidth="1"/>
+    <col min="10757" max="10757" width="9.140625" style="26"/>
+    <col min="10758" max="10764" width="7.28515625" style="26" customWidth="1"/>
+    <col min="10765" max="11008" width="9.140625" style="26"/>
+    <col min="11009" max="11009" width="2.85546875" style="26" customWidth="1"/>
+    <col min="11010" max="11010" width="4.42578125" style="26" customWidth="1"/>
+    <col min="11011" max="11011" width="9.140625" style="26"/>
+    <col min="11012" max="11012" width="15" style="26" customWidth="1"/>
+    <col min="11013" max="11013" width="9.140625" style="26"/>
+    <col min="11014" max="11020" width="7.28515625" style="26" customWidth="1"/>
+    <col min="11021" max="11264" width="9.140625" style="26"/>
+    <col min="11265" max="11265" width="2.85546875" style="26" customWidth="1"/>
+    <col min="11266" max="11266" width="4.42578125" style="26" customWidth="1"/>
+    <col min="11267" max="11267" width="9.140625" style="26"/>
+    <col min="11268" max="11268" width="15" style="26" customWidth="1"/>
+    <col min="11269" max="11269" width="9.140625" style="26"/>
+    <col min="11270" max="11276" width="7.28515625" style="26" customWidth="1"/>
+    <col min="11277" max="11520" width="9.140625" style="26"/>
+    <col min="11521" max="11521" width="2.85546875" style="26" customWidth="1"/>
+    <col min="11522" max="11522" width="4.42578125" style="26" customWidth="1"/>
+    <col min="11523" max="11523" width="9.140625" style="26"/>
+    <col min="11524" max="11524" width="15" style="26" customWidth="1"/>
+    <col min="11525" max="11525" width="9.140625" style="26"/>
+    <col min="11526" max="11532" width="7.28515625" style="26" customWidth="1"/>
+    <col min="11533" max="11776" width="9.140625" style="26"/>
+    <col min="11777" max="11777" width="2.85546875" style="26" customWidth="1"/>
+    <col min="11778" max="11778" width="4.42578125" style="26" customWidth="1"/>
+    <col min="11779" max="11779" width="9.140625" style="26"/>
+    <col min="11780" max="11780" width="15" style="26" customWidth="1"/>
+    <col min="11781" max="11781" width="9.140625" style="26"/>
+    <col min="11782" max="11788" width="7.28515625" style="26" customWidth="1"/>
+    <col min="11789" max="12032" width="9.140625" style="26"/>
+    <col min="12033" max="12033" width="2.85546875" style="26" customWidth="1"/>
+    <col min="12034" max="12034" width="4.42578125" style="26" customWidth="1"/>
+    <col min="12035" max="12035" width="9.140625" style="26"/>
+    <col min="12036" max="12036" width="15" style="26" customWidth="1"/>
+    <col min="12037" max="12037" width="9.140625" style="26"/>
+    <col min="12038" max="12044" width="7.28515625" style="26" customWidth="1"/>
+    <col min="12045" max="12288" width="9.140625" style="26"/>
+    <col min="12289" max="12289" width="2.85546875" style="26" customWidth="1"/>
+    <col min="12290" max="12290" width="4.42578125" style="26" customWidth="1"/>
+    <col min="12291" max="12291" width="9.140625" style="26"/>
+    <col min="12292" max="12292" width="15" style="26" customWidth="1"/>
+    <col min="12293" max="12293" width="9.140625" style="26"/>
+    <col min="12294" max="12300" width="7.28515625" style="26" customWidth="1"/>
+    <col min="12301" max="12544" width="9.140625" style="26"/>
+    <col min="12545" max="12545" width="2.85546875" style="26" customWidth="1"/>
+    <col min="12546" max="12546" width="4.42578125" style="26" customWidth="1"/>
+    <col min="12547" max="12547" width="9.140625" style="26"/>
+    <col min="12548" max="12548" width="15" style="26" customWidth="1"/>
+    <col min="12549" max="12549" width="9.140625" style="26"/>
+    <col min="12550" max="12556" width="7.28515625" style="26" customWidth="1"/>
+    <col min="12557" max="12800" width="9.140625" style="26"/>
+    <col min="12801" max="12801" width="2.85546875" style="26" customWidth="1"/>
+    <col min="12802" max="12802" width="4.42578125" style="26" customWidth="1"/>
+    <col min="12803" max="12803" width="9.140625" style="26"/>
+    <col min="12804" max="12804" width="15" style="26" customWidth="1"/>
+    <col min="12805" max="12805" width="9.140625" style="26"/>
+    <col min="12806" max="12812" width="7.28515625" style="26" customWidth="1"/>
+    <col min="12813" max="13056" width="9.140625" style="26"/>
+    <col min="13057" max="13057" width="2.85546875" style="26" customWidth="1"/>
+    <col min="13058" max="13058" width="4.42578125" style="26" customWidth="1"/>
+    <col min="13059" max="13059" width="9.140625" style="26"/>
+    <col min="13060" max="13060" width="15" style="26" customWidth="1"/>
+    <col min="13061" max="13061" width="9.140625" style="26"/>
+    <col min="13062" max="13068" width="7.28515625" style="26" customWidth="1"/>
+    <col min="13069" max="13312" width="9.140625" style="26"/>
+    <col min="13313" max="13313" width="2.85546875" style="26" customWidth="1"/>
+    <col min="13314" max="13314" width="4.42578125" style="26" customWidth="1"/>
+    <col min="13315" max="13315" width="9.140625" style="26"/>
+    <col min="13316" max="13316" width="15" style="26" customWidth="1"/>
+    <col min="13317" max="13317" width="9.140625" style="26"/>
+    <col min="13318" max="13324" width="7.28515625" style="26" customWidth="1"/>
+    <col min="13325" max="13568" width="9.140625" style="26"/>
+    <col min="13569" max="13569" width="2.85546875" style="26" customWidth="1"/>
+    <col min="13570" max="13570" width="4.42578125" style="26" customWidth="1"/>
+    <col min="13571" max="13571" width="9.140625" style="26"/>
+    <col min="13572" max="13572" width="15" style="26" customWidth="1"/>
+    <col min="13573" max="13573" width="9.140625" style="26"/>
+    <col min="13574" max="13580" width="7.28515625" style="26" customWidth="1"/>
+    <col min="13581" max="13824" width="9.140625" style="26"/>
+    <col min="13825" max="13825" width="2.85546875" style="26" customWidth="1"/>
+    <col min="13826" max="13826" width="4.42578125" style="26" customWidth="1"/>
+    <col min="13827" max="13827" width="9.140625" style="26"/>
+    <col min="13828" max="13828" width="15" style="26" customWidth="1"/>
+    <col min="13829" max="13829" width="9.140625" style="26"/>
+    <col min="13830" max="13836" width="7.28515625" style="26" customWidth="1"/>
+    <col min="13837" max="14080" width="9.140625" style="26"/>
+    <col min="14081" max="14081" width="2.85546875" style="26" customWidth="1"/>
+    <col min="14082" max="14082" width="4.42578125" style="26" customWidth="1"/>
+    <col min="14083" max="14083" width="9.140625" style="26"/>
+    <col min="14084" max="14084" width="15" style="26" customWidth="1"/>
+    <col min="14085" max="14085" width="9.140625" style="26"/>
+    <col min="14086" max="14092" width="7.28515625" style="26" customWidth="1"/>
+    <col min="14093" max="14336" width="9.140625" style="26"/>
+    <col min="14337" max="14337" width="2.85546875" style="26" customWidth="1"/>
+    <col min="14338" max="14338" width="4.42578125" style="26" customWidth="1"/>
+    <col min="14339" max="14339" width="9.140625" style="26"/>
+    <col min="14340" max="14340" width="15" style="26" customWidth="1"/>
+    <col min="14341" max="14341" width="9.140625" style="26"/>
+    <col min="14342" max="14348" width="7.28515625" style="26" customWidth="1"/>
+    <col min="14349" max="14592" width="9.140625" style="26"/>
+    <col min="14593" max="14593" width="2.85546875" style="26" customWidth="1"/>
+    <col min="14594" max="14594" width="4.42578125" style="26" customWidth="1"/>
+    <col min="14595" max="14595" width="9.140625" style="26"/>
+    <col min="14596" max="14596" width="15" style="26" customWidth="1"/>
+    <col min="14597" max="14597" width="9.140625" style="26"/>
+    <col min="14598" max="14604" width="7.28515625" style="26" customWidth="1"/>
+    <col min="14605" max="14848" width="9.140625" style="26"/>
+    <col min="14849" max="14849" width="2.85546875" style="26" customWidth="1"/>
+    <col min="14850" max="14850" width="4.42578125" style="26" customWidth="1"/>
+    <col min="14851" max="14851" width="9.140625" style="26"/>
+    <col min="14852" max="14852" width="15" style="26" customWidth="1"/>
+    <col min="14853" max="14853" width="9.140625" style="26"/>
+    <col min="14854" max="14860" width="7.28515625" style="26" customWidth="1"/>
+    <col min="14861" max="15104" width="9.140625" style="26"/>
+    <col min="15105" max="15105" width="2.85546875" style="26" customWidth="1"/>
+    <col min="15106" max="15106" width="4.42578125" style="26" customWidth="1"/>
+    <col min="15107" max="15107" width="9.140625" style="26"/>
+    <col min="15108" max="15108" width="15" style="26" customWidth="1"/>
+    <col min="15109" max="15109" width="9.140625" style="26"/>
+    <col min="15110" max="15116" width="7.28515625" style="26" customWidth="1"/>
+    <col min="15117" max="15360" width="9.140625" style="26"/>
+    <col min="15361" max="15361" width="2.85546875" style="26" customWidth="1"/>
+    <col min="15362" max="15362" width="4.42578125" style="26" customWidth="1"/>
+    <col min="15363" max="15363" width="9.140625" style="26"/>
+    <col min="15364" max="15364" width="15" style="26" customWidth="1"/>
+    <col min="15365" max="15365" width="9.140625" style="26"/>
+    <col min="15366" max="15372" width="7.28515625" style="26" customWidth="1"/>
+    <col min="15373" max="15616" width="9.140625" style="26"/>
+    <col min="15617" max="15617" width="2.85546875" style="26" customWidth="1"/>
+    <col min="15618" max="15618" width="4.42578125" style="26" customWidth="1"/>
+    <col min="15619" max="15619" width="9.140625" style="26"/>
+    <col min="15620" max="15620" width="15" style="26" customWidth="1"/>
+    <col min="15621" max="15621" width="9.140625" style="26"/>
+    <col min="15622" max="15628" width="7.28515625" style="26" customWidth="1"/>
+    <col min="15629" max="15872" width="9.140625" style="26"/>
+    <col min="15873" max="15873" width="2.85546875" style="26" customWidth="1"/>
+    <col min="15874" max="15874" width="4.42578125" style="26" customWidth="1"/>
+    <col min="15875" max="15875" width="9.140625" style="26"/>
+    <col min="15876" max="15876" width="15" style="26" customWidth="1"/>
+    <col min="15877" max="15877" width="9.140625" style="26"/>
+    <col min="15878" max="15884" width="7.28515625" style="26" customWidth="1"/>
+    <col min="15885" max="16128" width="9.140625" style="26"/>
+    <col min="16129" max="16129" width="2.85546875" style="26" customWidth="1"/>
+    <col min="16130" max="16130" width="4.42578125" style="26" customWidth="1"/>
+    <col min="16131" max="16131" width="9.140625" style="26"/>
+    <col min="16132" max="16132" width="15" style="26" customWidth="1"/>
+    <col min="16133" max="16133" width="9.140625" style="26"/>
+    <col min="16134" max="16140" width="7.28515625" style="26" customWidth="1"/>
+    <col min="16141" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:16" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="38" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="38" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="31"/>
+      <c r="I3" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="17" t="s">
+      <c r="K3" s="31"/>
+      <c r="L3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="38" t="s">
+      <c r="O3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="39"/>
+      <c r="P3" s="31"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="18" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="32" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="17"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="32"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="28">
         <v>1</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="28">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D6" s="28">
+        <v>9.6</v>
+      </c>
+      <c r="E6" s="28">
+        <v>3</v>
+      </c>
+      <c r="F6" s="28">
+        <v>4</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28">
+        <v>10</v>
+      </c>
+      <c r="J6" s="28">
+        <v>3</v>
+      </c>
+      <c r="K6" s="28">
+        <v>5</v>
+      </c>
+      <c r="L6" s="28">
+        <v>2</v>
+      </c>
+      <c r="M6" s="28">
+        <v>2</v>
+      </c>
+      <c r="N6" s="28">
+        <v>100</v>
+      </c>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
+        <v>2</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="C7" s="28">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D7" s="28">
+        <v>9.6</v>
+      </c>
+      <c r="E7" s="28">
+        <v>3</v>
+      </c>
+      <c r="F7" s="28">
+        <v>4</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28">
+        <v>2</v>
+      </c>
+      <c r="M7" s="28">
+        <v>2</v>
+      </c>
+      <c r="N7" s="28">
+        <v>100</v>
+      </c>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>3</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="C8" s="28">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D8" s="28">
+        <v>9.1</v>
+      </c>
+      <c r="E8" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="F8" s="28">
+        <v>5</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28">
+        <v>2</v>
+      </c>
+      <c r="M8" s="28">
+        <v>2</v>
+      </c>
+      <c r="N8" s="28">
+        <v>100</v>
+      </c>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>4</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="C9" s="28">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D9" s="28">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E9" s="28">
+        <v>4</v>
+      </c>
+      <c r="F9" s="28">
+        <v>5</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28">
+        <v>2</v>
+      </c>
+      <c r="M9" s="28">
+        <v>2</v>
+      </c>
+      <c r="N9" s="28">
+        <v>100</v>
+      </c>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
+        <v>5</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21" t="s">
+      <c r="C10" s="28">
+        <v>9</v>
+      </c>
+      <c r="D10" s="28">
+        <v>9.6</v>
+      </c>
+      <c r="E10" s="28">
+        <v>4</v>
+      </c>
+      <c r="F10" s="28">
+        <v>5</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28">
+        <v>2</v>
+      </c>
+      <c r="M10" s="28">
+        <v>2</v>
+      </c>
+      <c r="N10" s="28">
+        <v>100</v>
+      </c>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>6</v>
+      </c>
+      <c r="B11" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="21" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28">
+        <v>6</v>
+      </c>
+      <c r="H11" s="28">
+        <v>8</v>
+      </c>
+      <c r="I11" s="28">
+        <v>10</v>
+      </c>
+      <c r="J11" s="28">
+        <v>3</v>
+      </c>
+      <c r="K11" s="28">
+        <v>5</v>
+      </c>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28">
+        <v>300</v>
+      </c>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>7</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28">
+        <v>6</v>
+      </c>
+      <c r="H12" s="28">
+        <v>8</v>
+      </c>
+      <c r="I12" s="28">
+        <v>10</v>
+      </c>
+      <c r="J12" s="28">
+        <v>3</v>
+      </c>
+      <c r="K12" s="28">
+        <v>5</v>
+      </c>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28">
+        <v>300</v>
+      </c>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="28">
+        <v>8</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28">
+        <v>6</v>
+      </c>
+      <c r="H13" s="28">
+        <v>8</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28">
+        <v>3</v>
+      </c>
+      <c r="K13" s="28">
+        <v>5</v>
+      </c>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+    </row>
+    <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
+        <v>9</v>
+      </c>
+      <c r="B14" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28">
+        <v>6</v>
+      </c>
+      <c r="H14" s="28">
+        <v>8</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28">
+        <v>3</v>
+      </c>
+      <c r="K14" s="28">
+        <v>5</v>
+      </c>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28">
+        <v>200</v>
+      </c>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+    </row>
+    <row r="15" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <v>10</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28">
+        <v>6</v>
+      </c>
+      <c r="H15" s="28">
+        <v>8</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28">
+        <v>3</v>
+      </c>
+      <c r="K15" s="28">
+        <v>5</v>
+      </c>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="28">
+        <v>11</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>2</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28">
         <v>3</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="N8" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>4</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="K16" s="28">
         <v>5</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <v>6</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
-        <v>7</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
-        <v>8</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-    </row>
-    <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
-        <v>9</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-    </row>
-    <row r="15" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
-        <v>10</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
-        <v>11</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="16">
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28">
         <v>5.0999999999999996</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="28">
         <v>6.6</v>
       </c>
     </row>

--- a/xlsx/laboratory/technology/ШП СОЖ ШСП.xlsx
+++ b/xlsx/laboratory/technology/ШП СОЖ ШСП.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="17940" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="17940" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="нормативы ШП" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>наименование</t>
   </si>
@@ -235,9 +235,6 @@
     <t>Ванна МК</t>
   </si>
   <si>
-    <t>Масло МЗМ-26</t>
-  </si>
-  <si>
     <t>Масло закалочное МЗМ-26</t>
   </si>
   <si>
@@ -292,13 +289,13 @@
     <t>Фрео</t>
   </si>
   <si>
-    <t>содово нитритная эмульсия</t>
-  </si>
-  <si>
     <t>содово нитрит с Симпро 41</t>
   </si>
   <si>
-    <t>спец. водный раствор</t>
+    <t>спец. водный</t>
+  </si>
+  <si>
+    <t>содово нитрит</t>
   </si>
 </sst>
 </file>
@@ -556,6 +553,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -589,44 +610,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -639,6 +636,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -687,7 +687,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -722,7 +722,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -953,67 +953,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="20" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
@@ -1026,11 +1026,11 @@
       <c r="F4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="23"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1316,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,64 +1329,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
-      <c r="B4" s="16"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
@@ -1399,11 +1399,11 @@
       <c r="F4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="23"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -1480,59 +1480,59 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="13">
-        <v>23.5</v>
+        <v>21</v>
       </c>
       <c r="F8" s="13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K8" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="13">
-        <v>21</v>
+        <v>23.5</v>
       </c>
       <c r="F9" s="13">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="13">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K9" s="13">
         <v>0</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>24</v>
@@ -1548,51 +1548,22 @@
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="13">
-        <v>23.5</v>
+        <v>15</v>
       </c>
       <c r="F10" s="13">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" s="13">
         <v>1</v>
       </c>
       <c r="H10" s="13">
-        <v>0.01</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K10" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>6</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13">
-        <v>15</v>
-      </c>
-      <c r="F11" s="13">
-        <v>25</v>
-      </c>
-      <c r="G11" s="13">
-        <v>1</v>
-      </c>
-      <c r="H11" s="13">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13">
-        <v>180</v>
-      </c>
-      <c r="K11" s="13">
         <v>0.5</v>
       </c>
     </row>
@@ -1617,976 +1588,882 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="38" customWidth="1"/>
-    <col min="3" max="4" width="7.85546875" style="26" customWidth="1"/>
-    <col min="5" max="8" width="4.5703125" style="26" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="26" customWidth="1"/>
-    <col min="10" max="11" width="4.5703125" style="26" customWidth="1"/>
-    <col min="12" max="12" width="11" style="26" customWidth="1"/>
-    <col min="13" max="14" width="8" style="26" customWidth="1"/>
-    <col min="15" max="16" width="7" style="26" customWidth="1"/>
-    <col min="17" max="256" width="9.140625" style="26"/>
-    <col min="257" max="257" width="2.85546875" style="26" customWidth="1"/>
-    <col min="258" max="258" width="4.42578125" style="26" customWidth="1"/>
-    <col min="259" max="259" width="9.140625" style="26"/>
-    <col min="260" max="260" width="15" style="26" customWidth="1"/>
-    <col min="261" max="261" width="9.140625" style="26"/>
-    <col min="262" max="268" width="7.28515625" style="26" customWidth="1"/>
-    <col min="269" max="512" width="9.140625" style="26"/>
-    <col min="513" max="513" width="2.85546875" style="26" customWidth="1"/>
-    <col min="514" max="514" width="4.42578125" style="26" customWidth="1"/>
-    <col min="515" max="515" width="9.140625" style="26"/>
-    <col min="516" max="516" width="15" style="26" customWidth="1"/>
-    <col min="517" max="517" width="9.140625" style="26"/>
-    <col min="518" max="524" width="7.28515625" style="26" customWidth="1"/>
-    <col min="525" max="768" width="9.140625" style="26"/>
-    <col min="769" max="769" width="2.85546875" style="26" customWidth="1"/>
-    <col min="770" max="770" width="4.42578125" style="26" customWidth="1"/>
-    <col min="771" max="771" width="9.140625" style="26"/>
-    <col min="772" max="772" width="15" style="26" customWidth="1"/>
-    <col min="773" max="773" width="9.140625" style="26"/>
-    <col min="774" max="780" width="7.28515625" style="26" customWidth="1"/>
-    <col min="781" max="1024" width="9.140625" style="26"/>
-    <col min="1025" max="1025" width="2.85546875" style="26" customWidth="1"/>
-    <col min="1026" max="1026" width="4.42578125" style="26" customWidth="1"/>
-    <col min="1027" max="1027" width="9.140625" style="26"/>
-    <col min="1028" max="1028" width="15" style="26" customWidth="1"/>
-    <col min="1029" max="1029" width="9.140625" style="26"/>
-    <col min="1030" max="1036" width="7.28515625" style="26" customWidth="1"/>
-    <col min="1037" max="1280" width="9.140625" style="26"/>
-    <col min="1281" max="1281" width="2.85546875" style="26" customWidth="1"/>
-    <col min="1282" max="1282" width="4.42578125" style="26" customWidth="1"/>
-    <col min="1283" max="1283" width="9.140625" style="26"/>
-    <col min="1284" max="1284" width="15" style="26" customWidth="1"/>
-    <col min="1285" max="1285" width="9.140625" style="26"/>
-    <col min="1286" max="1292" width="7.28515625" style="26" customWidth="1"/>
-    <col min="1293" max="1536" width="9.140625" style="26"/>
-    <col min="1537" max="1537" width="2.85546875" style="26" customWidth="1"/>
-    <col min="1538" max="1538" width="4.42578125" style="26" customWidth="1"/>
-    <col min="1539" max="1539" width="9.140625" style="26"/>
-    <col min="1540" max="1540" width="15" style="26" customWidth="1"/>
-    <col min="1541" max="1541" width="9.140625" style="26"/>
-    <col min="1542" max="1548" width="7.28515625" style="26" customWidth="1"/>
-    <col min="1549" max="1792" width="9.140625" style="26"/>
-    <col min="1793" max="1793" width="2.85546875" style="26" customWidth="1"/>
-    <col min="1794" max="1794" width="4.42578125" style="26" customWidth="1"/>
-    <col min="1795" max="1795" width="9.140625" style="26"/>
-    <col min="1796" max="1796" width="15" style="26" customWidth="1"/>
-    <col min="1797" max="1797" width="9.140625" style="26"/>
-    <col min="1798" max="1804" width="7.28515625" style="26" customWidth="1"/>
-    <col min="1805" max="2048" width="9.140625" style="26"/>
-    <col min="2049" max="2049" width="2.85546875" style="26" customWidth="1"/>
-    <col min="2050" max="2050" width="4.42578125" style="26" customWidth="1"/>
-    <col min="2051" max="2051" width="9.140625" style="26"/>
-    <col min="2052" max="2052" width="15" style="26" customWidth="1"/>
-    <col min="2053" max="2053" width="9.140625" style="26"/>
-    <col min="2054" max="2060" width="7.28515625" style="26" customWidth="1"/>
-    <col min="2061" max="2304" width="9.140625" style="26"/>
-    <col min="2305" max="2305" width="2.85546875" style="26" customWidth="1"/>
-    <col min="2306" max="2306" width="4.42578125" style="26" customWidth="1"/>
-    <col min="2307" max="2307" width="9.140625" style="26"/>
-    <col min="2308" max="2308" width="15" style="26" customWidth="1"/>
-    <col min="2309" max="2309" width="9.140625" style="26"/>
-    <col min="2310" max="2316" width="7.28515625" style="26" customWidth="1"/>
-    <col min="2317" max="2560" width="9.140625" style="26"/>
-    <col min="2561" max="2561" width="2.85546875" style="26" customWidth="1"/>
-    <col min="2562" max="2562" width="4.42578125" style="26" customWidth="1"/>
-    <col min="2563" max="2563" width="9.140625" style="26"/>
-    <col min="2564" max="2564" width="15" style="26" customWidth="1"/>
-    <col min="2565" max="2565" width="9.140625" style="26"/>
-    <col min="2566" max="2572" width="7.28515625" style="26" customWidth="1"/>
-    <col min="2573" max="2816" width="9.140625" style="26"/>
-    <col min="2817" max="2817" width="2.85546875" style="26" customWidth="1"/>
-    <col min="2818" max="2818" width="4.42578125" style="26" customWidth="1"/>
-    <col min="2819" max="2819" width="9.140625" style="26"/>
-    <col min="2820" max="2820" width="15" style="26" customWidth="1"/>
-    <col min="2821" max="2821" width="9.140625" style="26"/>
-    <col min="2822" max="2828" width="7.28515625" style="26" customWidth="1"/>
-    <col min="2829" max="3072" width="9.140625" style="26"/>
-    <col min="3073" max="3073" width="2.85546875" style="26" customWidth="1"/>
-    <col min="3074" max="3074" width="4.42578125" style="26" customWidth="1"/>
-    <col min="3075" max="3075" width="9.140625" style="26"/>
-    <col min="3076" max="3076" width="15" style="26" customWidth="1"/>
-    <col min="3077" max="3077" width="9.140625" style="26"/>
-    <col min="3078" max="3084" width="7.28515625" style="26" customWidth="1"/>
-    <col min="3085" max="3328" width="9.140625" style="26"/>
-    <col min="3329" max="3329" width="2.85546875" style="26" customWidth="1"/>
-    <col min="3330" max="3330" width="4.42578125" style="26" customWidth="1"/>
-    <col min="3331" max="3331" width="9.140625" style="26"/>
-    <col min="3332" max="3332" width="15" style="26" customWidth="1"/>
-    <col min="3333" max="3333" width="9.140625" style="26"/>
-    <col min="3334" max="3340" width="7.28515625" style="26" customWidth="1"/>
-    <col min="3341" max="3584" width="9.140625" style="26"/>
-    <col min="3585" max="3585" width="2.85546875" style="26" customWidth="1"/>
-    <col min="3586" max="3586" width="4.42578125" style="26" customWidth="1"/>
-    <col min="3587" max="3587" width="9.140625" style="26"/>
-    <col min="3588" max="3588" width="15" style="26" customWidth="1"/>
-    <col min="3589" max="3589" width="9.140625" style="26"/>
-    <col min="3590" max="3596" width="7.28515625" style="26" customWidth="1"/>
-    <col min="3597" max="3840" width="9.140625" style="26"/>
-    <col min="3841" max="3841" width="2.85546875" style="26" customWidth="1"/>
-    <col min="3842" max="3842" width="4.42578125" style="26" customWidth="1"/>
-    <col min="3843" max="3843" width="9.140625" style="26"/>
-    <col min="3844" max="3844" width="15" style="26" customWidth="1"/>
-    <col min="3845" max="3845" width="9.140625" style="26"/>
-    <col min="3846" max="3852" width="7.28515625" style="26" customWidth="1"/>
-    <col min="3853" max="4096" width="9.140625" style="26"/>
-    <col min="4097" max="4097" width="2.85546875" style="26" customWidth="1"/>
-    <col min="4098" max="4098" width="4.42578125" style="26" customWidth="1"/>
-    <col min="4099" max="4099" width="9.140625" style="26"/>
-    <col min="4100" max="4100" width="15" style="26" customWidth="1"/>
-    <col min="4101" max="4101" width="9.140625" style="26"/>
-    <col min="4102" max="4108" width="7.28515625" style="26" customWidth="1"/>
-    <col min="4109" max="4352" width="9.140625" style="26"/>
-    <col min="4353" max="4353" width="2.85546875" style="26" customWidth="1"/>
-    <col min="4354" max="4354" width="4.42578125" style="26" customWidth="1"/>
-    <col min="4355" max="4355" width="9.140625" style="26"/>
-    <col min="4356" max="4356" width="15" style="26" customWidth="1"/>
-    <col min="4357" max="4357" width="9.140625" style="26"/>
-    <col min="4358" max="4364" width="7.28515625" style="26" customWidth="1"/>
-    <col min="4365" max="4608" width="9.140625" style="26"/>
-    <col min="4609" max="4609" width="2.85546875" style="26" customWidth="1"/>
-    <col min="4610" max="4610" width="4.42578125" style="26" customWidth="1"/>
-    <col min="4611" max="4611" width="9.140625" style="26"/>
-    <col min="4612" max="4612" width="15" style="26" customWidth="1"/>
-    <col min="4613" max="4613" width="9.140625" style="26"/>
-    <col min="4614" max="4620" width="7.28515625" style="26" customWidth="1"/>
-    <col min="4621" max="4864" width="9.140625" style="26"/>
-    <col min="4865" max="4865" width="2.85546875" style="26" customWidth="1"/>
-    <col min="4866" max="4866" width="4.42578125" style="26" customWidth="1"/>
-    <col min="4867" max="4867" width="9.140625" style="26"/>
-    <col min="4868" max="4868" width="15" style="26" customWidth="1"/>
-    <col min="4869" max="4869" width="9.140625" style="26"/>
-    <col min="4870" max="4876" width="7.28515625" style="26" customWidth="1"/>
-    <col min="4877" max="5120" width="9.140625" style="26"/>
-    <col min="5121" max="5121" width="2.85546875" style="26" customWidth="1"/>
-    <col min="5122" max="5122" width="4.42578125" style="26" customWidth="1"/>
-    <col min="5123" max="5123" width="9.140625" style="26"/>
-    <col min="5124" max="5124" width="15" style="26" customWidth="1"/>
-    <col min="5125" max="5125" width="9.140625" style="26"/>
-    <col min="5126" max="5132" width="7.28515625" style="26" customWidth="1"/>
-    <col min="5133" max="5376" width="9.140625" style="26"/>
-    <col min="5377" max="5377" width="2.85546875" style="26" customWidth="1"/>
-    <col min="5378" max="5378" width="4.42578125" style="26" customWidth="1"/>
-    <col min="5379" max="5379" width="9.140625" style="26"/>
-    <col min="5380" max="5380" width="15" style="26" customWidth="1"/>
-    <col min="5381" max="5381" width="9.140625" style="26"/>
-    <col min="5382" max="5388" width="7.28515625" style="26" customWidth="1"/>
-    <col min="5389" max="5632" width="9.140625" style="26"/>
-    <col min="5633" max="5633" width="2.85546875" style="26" customWidth="1"/>
-    <col min="5634" max="5634" width="4.42578125" style="26" customWidth="1"/>
-    <col min="5635" max="5635" width="9.140625" style="26"/>
-    <col min="5636" max="5636" width="15" style="26" customWidth="1"/>
-    <col min="5637" max="5637" width="9.140625" style="26"/>
-    <col min="5638" max="5644" width="7.28515625" style="26" customWidth="1"/>
-    <col min="5645" max="5888" width="9.140625" style="26"/>
-    <col min="5889" max="5889" width="2.85546875" style="26" customWidth="1"/>
-    <col min="5890" max="5890" width="4.42578125" style="26" customWidth="1"/>
-    <col min="5891" max="5891" width="9.140625" style="26"/>
-    <col min="5892" max="5892" width="15" style="26" customWidth="1"/>
-    <col min="5893" max="5893" width="9.140625" style="26"/>
-    <col min="5894" max="5900" width="7.28515625" style="26" customWidth="1"/>
-    <col min="5901" max="6144" width="9.140625" style="26"/>
-    <col min="6145" max="6145" width="2.85546875" style="26" customWidth="1"/>
-    <col min="6146" max="6146" width="4.42578125" style="26" customWidth="1"/>
-    <col min="6147" max="6147" width="9.140625" style="26"/>
-    <col min="6148" max="6148" width="15" style="26" customWidth="1"/>
-    <col min="6149" max="6149" width="9.140625" style="26"/>
-    <col min="6150" max="6156" width="7.28515625" style="26" customWidth="1"/>
-    <col min="6157" max="6400" width="9.140625" style="26"/>
-    <col min="6401" max="6401" width="2.85546875" style="26" customWidth="1"/>
-    <col min="6402" max="6402" width="4.42578125" style="26" customWidth="1"/>
-    <col min="6403" max="6403" width="9.140625" style="26"/>
-    <col min="6404" max="6404" width="15" style="26" customWidth="1"/>
-    <col min="6405" max="6405" width="9.140625" style="26"/>
-    <col min="6406" max="6412" width="7.28515625" style="26" customWidth="1"/>
-    <col min="6413" max="6656" width="9.140625" style="26"/>
-    <col min="6657" max="6657" width="2.85546875" style="26" customWidth="1"/>
-    <col min="6658" max="6658" width="4.42578125" style="26" customWidth="1"/>
-    <col min="6659" max="6659" width="9.140625" style="26"/>
-    <col min="6660" max="6660" width="15" style="26" customWidth="1"/>
-    <col min="6661" max="6661" width="9.140625" style="26"/>
-    <col min="6662" max="6668" width="7.28515625" style="26" customWidth="1"/>
-    <col min="6669" max="6912" width="9.140625" style="26"/>
-    <col min="6913" max="6913" width="2.85546875" style="26" customWidth="1"/>
-    <col min="6914" max="6914" width="4.42578125" style="26" customWidth="1"/>
-    <col min="6915" max="6915" width="9.140625" style="26"/>
-    <col min="6916" max="6916" width="15" style="26" customWidth="1"/>
-    <col min="6917" max="6917" width="9.140625" style="26"/>
-    <col min="6918" max="6924" width="7.28515625" style="26" customWidth="1"/>
-    <col min="6925" max="7168" width="9.140625" style="26"/>
-    <col min="7169" max="7169" width="2.85546875" style="26" customWidth="1"/>
-    <col min="7170" max="7170" width="4.42578125" style="26" customWidth="1"/>
-    <col min="7171" max="7171" width="9.140625" style="26"/>
-    <col min="7172" max="7172" width="15" style="26" customWidth="1"/>
-    <col min="7173" max="7173" width="9.140625" style="26"/>
-    <col min="7174" max="7180" width="7.28515625" style="26" customWidth="1"/>
-    <col min="7181" max="7424" width="9.140625" style="26"/>
-    <col min="7425" max="7425" width="2.85546875" style="26" customWidth="1"/>
-    <col min="7426" max="7426" width="4.42578125" style="26" customWidth="1"/>
-    <col min="7427" max="7427" width="9.140625" style="26"/>
-    <col min="7428" max="7428" width="15" style="26" customWidth="1"/>
-    <col min="7429" max="7429" width="9.140625" style="26"/>
-    <col min="7430" max="7436" width="7.28515625" style="26" customWidth="1"/>
-    <col min="7437" max="7680" width="9.140625" style="26"/>
-    <col min="7681" max="7681" width="2.85546875" style="26" customWidth="1"/>
-    <col min="7682" max="7682" width="4.42578125" style="26" customWidth="1"/>
-    <col min="7683" max="7683" width="9.140625" style="26"/>
-    <col min="7684" max="7684" width="15" style="26" customWidth="1"/>
-    <col min="7685" max="7685" width="9.140625" style="26"/>
-    <col min="7686" max="7692" width="7.28515625" style="26" customWidth="1"/>
-    <col min="7693" max="7936" width="9.140625" style="26"/>
-    <col min="7937" max="7937" width="2.85546875" style="26" customWidth="1"/>
-    <col min="7938" max="7938" width="4.42578125" style="26" customWidth="1"/>
-    <col min="7939" max="7939" width="9.140625" style="26"/>
-    <col min="7940" max="7940" width="15" style="26" customWidth="1"/>
-    <col min="7941" max="7941" width="9.140625" style="26"/>
-    <col min="7942" max="7948" width="7.28515625" style="26" customWidth="1"/>
-    <col min="7949" max="8192" width="9.140625" style="26"/>
-    <col min="8193" max="8193" width="2.85546875" style="26" customWidth="1"/>
-    <col min="8194" max="8194" width="4.42578125" style="26" customWidth="1"/>
-    <col min="8195" max="8195" width="9.140625" style="26"/>
-    <col min="8196" max="8196" width="15" style="26" customWidth="1"/>
-    <col min="8197" max="8197" width="9.140625" style="26"/>
-    <col min="8198" max="8204" width="7.28515625" style="26" customWidth="1"/>
-    <col min="8205" max="8448" width="9.140625" style="26"/>
-    <col min="8449" max="8449" width="2.85546875" style="26" customWidth="1"/>
-    <col min="8450" max="8450" width="4.42578125" style="26" customWidth="1"/>
-    <col min="8451" max="8451" width="9.140625" style="26"/>
-    <col min="8452" max="8452" width="15" style="26" customWidth="1"/>
-    <col min="8453" max="8453" width="9.140625" style="26"/>
-    <col min="8454" max="8460" width="7.28515625" style="26" customWidth="1"/>
-    <col min="8461" max="8704" width="9.140625" style="26"/>
-    <col min="8705" max="8705" width="2.85546875" style="26" customWidth="1"/>
-    <col min="8706" max="8706" width="4.42578125" style="26" customWidth="1"/>
-    <col min="8707" max="8707" width="9.140625" style="26"/>
-    <col min="8708" max="8708" width="15" style="26" customWidth="1"/>
-    <col min="8709" max="8709" width="9.140625" style="26"/>
-    <col min="8710" max="8716" width="7.28515625" style="26" customWidth="1"/>
-    <col min="8717" max="8960" width="9.140625" style="26"/>
-    <col min="8961" max="8961" width="2.85546875" style="26" customWidth="1"/>
-    <col min="8962" max="8962" width="4.42578125" style="26" customWidth="1"/>
-    <col min="8963" max="8963" width="9.140625" style="26"/>
-    <col min="8964" max="8964" width="15" style="26" customWidth="1"/>
-    <col min="8965" max="8965" width="9.140625" style="26"/>
-    <col min="8966" max="8972" width="7.28515625" style="26" customWidth="1"/>
-    <col min="8973" max="9216" width="9.140625" style="26"/>
-    <col min="9217" max="9217" width="2.85546875" style="26" customWidth="1"/>
-    <col min="9218" max="9218" width="4.42578125" style="26" customWidth="1"/>
-    <col min="9219" max="9219" width="9.140625" style="26"/>
-    <col min="9220" max="9220" width="15" style="26" customWidth="1"/>
-    <col min="9221" max="9221" width="9.140625" style="26"/>
-    <col min="9222" max="9228" width="7.28515625" style="26" customWidth="1"/>
-    <col min="9229" max="9472" width="9.140625" style="26"/>
-    <col min="9473" max="9473" width="2.85546875" style="26" customWidth="1"/>
-    <col min="9474" max="9474" width="4.42578125" style="26" customWidth="1"/>
-    <col min="9475" max="9475" width="9.140625" style="26"/>
-    <col min="9476" max="9476" width="15" style="26" customWidth="1"/>
-    <col min="9477" max="9477" width="9.140625" style="26"/>
-    <col min="9478" max="9484" width="7.28515625" style="26" customWidth="1"/>
-    <col min="9485" max="9728" width="9.140625" style="26"/>
-    <col min="9729" max="9729" width="2.85546875" style="26" customWidth="1"/>
-    <col min="9730" max="9730" width="4.42578125" style="26" customWidth="1"/>
-    <col min="9731" max="9731" width="9.140625" style="26"/>
-    <col min="9732" max="9732" width="15" style="26" customWidth="1"/>
-    <col min="9733" max="9733" width="9.140625" style="26"/>
-    <col min="9734" max="9740" width="7.28515625" style="26" customWidth="1"/>
-    <col min="9741" max="9984" width="9.140625" style="26"/>
-    <col min="9985" max="9985" width="2.85546875" style="26" customWidth="1"/>
-    <col min="9986" max="9986" width="4.42578125" style="26" customWidth="1"/>
-    <col min="9987" max="9987" width="9.140625" style="26"/>
-    <col min="9988" max="9988" width="15" style="26" customWidth="1"/>
-    <col min="9989" max="9989" width="9.140625" style="26"/>
-    <col min="9990" max="9996" width="7.28515625" style="26" customWidth="1"/>
-    <col min="9997" max="10240" width="9.140625" style="26"/>
-    <col min="10241" max="10241" width="2.85546875" style="26" customWidth="1"/>
-    <col min="10242" max="10242" width="4.42578125" style="26" customWidth="1"/>
-    <col min="10243" max="10243" width="9.140625" style="26"/>
-    <col min="10244" max="10244" width="15" style="26" customWidth="1"/>
-    <col min="10245" max="10245" width="9.140625" style="26"/>
-    <col min="10246" max="10252" width="7.28515625" style="26" customWidth="1"/>
-    <col min="10253" max="10496" width="9.140625" style="26"/>
-    <col min="10497" max="10497" width="2.85546875" style="26" customWidth="1"/>
-    <col min="10498" max="10498" width="4.42578125" style="26" customWidth="1"/>
-    <col min="10499" max="10499" width="9.140625" style="26"/>
-    <col min="10500" max="10500" width="15" style="26" customWidth="1"/>
-    <col min="10501" max="10501" width="9.140625" style="26"/>
-    <col min="10502" max="10508" width="7.28515625" style="26" customWidth="1"/>
-    <col min="10509" max="10752" width="9.140625" style="26"/>
-    <col min="10753" max="10753" width="2.85546875" style="26" customWidth="1"/>
-    <col min="10754" max="10754" width="4.42578125" style="26" customWidth="1"/>
-    <col min="10755" max="10755" width="9.140625" style="26"/>
-    <col min="10756" max="10756" width="15" style="26" customWidth="1"/>
-    <col min="10757" max="10757" width="9.140625" style="26"/>
-    <col min="10758" max="10764" width="7.28515625" style="26" customWidth="1"/>
-    <col min="10765" max="11008" width="9.140625" style="26"/>
-    <col min="11009" max="11009" width="2.85546875" style="26" customWidth="1"/>
-    <col min="11010" max="11010" width="4.42578125" style="26" customWidth="1"/>
-    <col min="11011" max="11011" width="9.140625" style="26"/>
-    <col min="11012" max="11012" width="15" style="26" customWidth="1"/>
-    <col min="11013" max="11013" width="9.140625" style="26"/>
-    <col min="11014" max="11020" width="7.28515625" style="26" customWidth="1"/>
-    <col min="11021" max="11264" width="9.140625" style="26"/>
-    <col min="11265" max="11265" width="2.85546875" style="26" customWidth="1"/>
-    <col min="11266" max="11266" width="4.42578125" style="26" customWidth="1"/>
-    <col min="11267" max="11267" width="9.140625" style="26"/>
-    <col min="11268" max="11268" width="15" style="26" customWidth="1"/>
-    <col min="11269" max="11269" width="9.140625" style="26"/>
-    <col min="11270" max="11276" width="7.28515625" style="26" customWidth="1"/>
-    <col min="11277" max="11520" width="9.140625" style="26"/>
-    <col min="11521" max="11521" width="2.85546875" style="26" customWidth="1"/>
-    <col min="11522" max="11522" width="4.42578125" style="26" customWidth="1"/>
-    <col min="11523" max="11523" width="9.140625" style="26"/>
-    <col min="11524" max="11524" width="15" style="26" customWidth="1"/>
-    <col min="11525" max="11525" width="9.140625" style="26"/>
-    <col min="11526" max="11532" width="7.28515625" style="26" customWidth="1"/>
-    <col min="11533" max="11776" width="9.140625" style="26"/>
-    <col min="11777" max="11777" width="2.85546875" style="26" customWidth="1"/>
-    <col min="11778" max="11778" width="4.42578125" style="26" customWidth="1"/>
-    <col min="11779" max="11779" width="9.140625" style="26"/>
-    <col min="11780" max="11780" width="15" style="26" customWidth="1"/>
-    <col min="11781" max="11781" width="9.140625" style="26"/>
-    <col min="11782" max="11788" width="7.28515625" style="26" customWidth="1"/>
-    <col min="11789" max="12032" width="9.140625" style="26"/>
-    <col min="12033" max="12033" width="2.85546875" style="26" customWidth="1"/>
-    <col min="12034" max="12034" width="4.42578125" style="26" customWidth="1"/>
-    <col min="12035" max="12035" width="9.140625" style="26"/>
-    <col min="12036" max="12036" width="15" style="26" customWidth="1"/>
-    <col min="12037" max="12037" width="9.140625" style="26"/>
-    <col min="12038" max="12044" width="7.28515625" style="26" customWidth="1"/>
-    <col min="12045" max="12288" width="9.140625" style="26"/>
-    <col min="12289" max="12289" width="2.85546875" style="26" customWidth="1"/>
-    <col min="12290" max="12290" width="4.42578125" style="26" customWidth="1"/>
-    <col min="12291" max="12291" width="9.140625" style="26"/>
-    <col min="12292" max="12292" width="15" style="26" customWidth="1"/>
-    <col min="12293" max="12293" width="9.140625" style="26"/>
-    <col min="12294" max="12300" width="7.28515625" style="26" customWidth="1"/>
-    <col min="12301" max="12544" width="9.140625" style="26"/>
-    <col min="12545" max="12545" width="2.85546875" style="26" customWidth="1"/>
-    <col min="12546" max="12546" width="4.42578125" style="26" customWidth="1"/>
-    <col min="12547" max="12547" width="9.140625" style="26"/>
-    <col min="12548" max="12548" width="15" style="26" customWidth="1"/>
-    <col min="12549" max="12549" width="9.140625" style="26"/>
-    <col min="12550" max="12556" width="7.28515625" style="26" customWidth="1"/>
-    <col min="12557" max="12800" width="9.140625" style="26"/>
-    <col min="12801" max="12801" width="2.85546875" style="26" customWidth="1"/>
-    <col min="12802" max="12802" width="4.42578125" style="26" customWidth="1"/>
-    <col min="12803" max="12803" width="9.140625" style="26"/>
-    <col min="12804" max="12804" width="15" style="26" customWidth="1"/>
-    <col min="12805" max="12805" width="9.140625" style="26"/>
-    <col min="12806" max="12812" width="7.28515625" style="26" customWidth="1"/>
-    <col min="12813" max="13056" width="9.140625" style="26"/>
-    <col min="13057" max="13057" width="2.85546875" style="26" customWidth="1"/>
-    <col min="13058" max="13058" width="4.42578125" style="26" customWidth="1"/>
-    <col min="13059" max="13059" width="9.140625" style="26"/>
-    <col min="13060" max="13060" width="15" style="26" customWidth="1"/>
-    <col min="13061" max="13061" width="9.140625" style="26"/>
-    <col min="13062" max="13068" width="7.28515625" style="26" customWidth="1"/>
-    <col min="13069" max="13312" width="9.140625" style="26"/>
-    <col min="13313" max="13313" width="2.85546875" style="26" customWidth="1"/>
-    <col min="13314" max="13314" width="4.42578125" style="26" customWidth="1"/>
-    <col min="13315" max="13315" width="9.140625" style="26"/>
-    <col min="13316" max="13316" width="15" style="26" customWidth="1"/>
-    <col min="13317" max="13317" width="9.140625" style="26"/>
-    <col min="13318" max="13324" width="7.28515625" style="26" customWidth="1"/>
-    <col min="13325" max="13568" width="9.140625" style="26"/>
-    <col min="13569" max="13569" width="2.85546875" style="26" customWidth="1"/>
-    <col min="13570" max="13570" width="4.42578125" style="26" customWidth="1"/>
-    <col min="13571" max="13571" width="9.140625" style="26"/>
-    <col min="13572" max="13572" width="15" style="26" customWidth="1"/>
-    <col min="13573" max="13573" width="9.140625" style="26"/>
-    <col min="13574" max="13580" width="7.28515625" style="26" customWidth="1"/>
-    <col min="13581" max="13824" width="9.140625" style="26"/>
-    <col min="13825" max="13825" width="2.85546875" style="26" customWidth="1"/>
-    <col min="13826" max="13826" width="4.42578125" style="26" customWidth="1"/>
-    <col min="13827" max="13827" width="9.140625" style="26"/>
-    <col min="13828" max="13828" width="15" style="26" customWidth="1"/>
-    <col min="13829" max="13829" width="9.140625" style="26"/>
-    <col min="13830" max="13836" width="7.28515625" style="26" customWidth="1"/>
-    <col min="13837" max="14080" width="9.140625" style="26"/>
-    <col min="14081" max="14081" width="2.85546875" style="26" customWidth="1"/>
-    <col min="14082" max="14082" width="4.42578125" style="26" customWidth="1"/>
-    <col min="14083" max="14083" width="9.140625" style="26"/>
-    <col min="14084" max="14084" width="15" style="26" customWidth="1"/>
-    <col min="14085" max="14085" width="9.140625" style="26"/>
-    <col min="14086" max="14092" width="7.28515625" style="26" customWidth="1"/>
-    <col min="14093" max="14336" width="9.140625" style="26"/>
-    <col min="14337" max="14337" width="2.85546875" style="26" customWidth="1"/>
-    <col min="14338" max="14338" width="4.42578125" style="26" customWidth="1"/>
-    <col min="14339" max="14339" width="9.140625" style="26"/>
-    <col min="14340" max="14340" width="15" style="26" customWidth="1"/>
-    <col min="14341" max="14341" width="9.140625" style="26"/>
-    <col min="14342" max="14348" width="7.28515625" style="26" customWidth="1"/>
-    <col min="14349" max="14592" width="9.140625" style="26"/>
-    <col min="14593" max="14593" width="2.85546875" style="26" customWidth="1"/>
-    <col min="14594" max="14594" width="4.42578125" style="26" customWidth="1"/>
-    <col min="14595" max="14595" width="9.140625" style="26"/>
-    <col min="14596" max="14596" width="15" style="26" customWidth="1"/>
-    <col min="14597" max="14597" width="9.140625" style="26"/>
-    <col min="14598" max="14604" width="7.28515625" style="26" customWidth="1"/>
-    <col min="14605" max="14848" width="9.140625" style="26"/>
-    <col min="14849" max="14849" width="2.85546875" style="26" customWidth="1"/>
-    <col min="14850" max="14850" width="4.42578125" style="26" customWidth="1"/>
-    <col min="14851" max="14851" width="9.140625" style="26"/>
-    <col min="14852" max="14852" width="15" style="26" customWidth="1"/>
-    <col min="14853" max="14853" width="9.140625" style="26"/>
-    <col min="14854" max="14860" width="7.28515625" style="26" customWidth="1"/>
-    <col min="14861" max="15104" width="9.140625" style="26"/>
-    <col min="15105" max="15105" width="2.85546875" style="26" customWidth="1"/>
-    <col min="15106" max="15106" width="4.42578125" style="26" customWidth="1"/>
-    <col min="15107" max="15107" width="9.140625" style="26"/>
-    <col min="15108" max="15108" width="15" style="26" customWidth="1"/>
-    <col min="15109" max="15109" width="9.140625" style="26"/>
-    <col min="15110" max="15116" width="7.28515625" style="26" customWidth="1"/>
-    <col min="15117" max="15360" width="9.140625" style="26"/>
-    <col min="15361" max="15361" width="2.85546875" style="26" customWidth="1"/>
-    <col min="15362" max="15362" width="4.42578125" style="26" customWidth="1"/>
-    <col min="15363" max="15363" width="9.140625" style="26"/>
-    <col min="15364" max="15364" width="15" style="26" customWidth="1"/>
-    <col min="15365" max="15365" width="9.140625" style="26"/>
-    <col min="15366" max="15372" width="7.28515625" style="26" customWidth="1"/>
-    <col min="15373" max="15616" width="9.140625" style="26"/>
-    <col min="15617" max="15617" width="2.85546875" style="26" customWidth="1"/>
-    <col min="15618" max="15618" width="4.42578125" style="26" customWidth="1"/>
-    <col min="15619" max="15619" width="9.140625" style="26"/>
-    <col min="15620" max="15620" width="15" style="26" customWidth="1"/>
-    <col min="15621" max="15621" width="9.140625" style="26"/>
-    <col min="15622" max="15628" width="7.28515625" style="26" customWidth="1"/>
-    <col min="15629" max="15872" width="9.140625" style="26"/>
-    <col min="15873" max="15873" width="2.85546875" style="26" customWidth="1"/>
-    <col min="15874" max="15874" width="4.42578125" style="26" customWidth="1"/>
-    <col min="15875" max="15875" width="9.140625" style="26"/>
-    <col min="15876" max="15876" width="15" style="26" customWidth="1"/>
-    <col min="15877" max="15877" width="9.140625" style="26"/>
-    <col min="15878" max="15884" width="7.28515625" style="26" customWidth="1"/>
-    <col min="15885" max="16128" width="9.140625" style="26"/>
-    <col min="16129" max="16129" width="2.85546875" style="26" customWidth="1"/>
-    <col min="16130" max="16130" width="4.42578125" style="26" customWidth="1"/>
-    <col min="16131" max="16131" width="9.140625" style="26"/>
-    <col min="16132" max="16132" width="15" style="26" customWidth="1"/>
-    <col min="16133" max="16133" width="9.140625" style="26"/>
-    <col min="16134" max="16140" width="7.28515625" style="26" customWidth="1"/>
-    <col min="16141" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="3.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="22" customWidth="1"/>
+    <col min="3" max="4" width="7.85546875" style="15" customWidth="1"/>
+    <col min="5" max="8" width="4.5703125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="15" customWidth="1"/>
+    <col min="10" max="11" width="4.5703125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="11" style="15" customWidth="1"/>
+    <col min="13" max="14" width="8" style="15" customWidth="1"/>
+    <col min="15" max="16" width="7" style="15" customWidth="1"/>
+    <col min="17" max="256" width="9.140625" style="15"/>
+    <col min="257" max="257" width="2.85546875" style="15" customWidth="1"/>
+    <col min="258" max="258" width="4.42578125" style="15" customWidth="1"/>
+    <col min="259" max="259" width="9.140625" style="15"/>
+    <col min="260" max="260" width="15" style="15" customWidth="1"/>
+    <col min="261" max="261" width="9.140625" style="15"/>
+    <col min="262" max="268" width="7.28515625" style="15" customWidth="1"/>
+    <col min="269" max="512" width="9.140625" style="15"/>
+    <col min="513" max="513" width="2.85546875" style="15" customWidth="1"/>
+    <col min="514" max="514" width="4.42578125" style="15" customWidth="1"/>
+    <col min="515" max="515" width="9.140625" style="15"/>
+    <col min="516" max="516" width="15" style="15" customWidth="1"/>
+    <col min="517" max="517" width="9.140625" style="15"/>
+    <col min="518" max="524" width="7.28515625" style="15" customWidth="1"/>
+    <col min="525" max="768" width="9.140625" style="15"/>
+    <col min="769" max="769" width="2.85546875" style="15" customWidth="1"/>
+    <col min="770" max="770" width="4.42578125" style="15" customWidth="1"/>
+    <col min="771" max="771" width="9.140625" style="15"/>
+    <col min="772" max="772" width="15" style="15" customWidth="1"/>
+    <col min="773" max="773" width="9.140625" style="15"/>
+    <col min="774" max="780" width="7.28515625" style="15" customWidth="1"/>
+    <col min="781" max="1024" width="9.140625" style="15"/>
+    <col min="1025" max="1025" width="2.85546875" style="15" customWidth="1"/>
+    <col min="1026" max="1026" width="4.42578125" style="15" customWidth="1"/>
+    <col min="1027" max="1027" width="9.140625" style="15"/>
+    <col min="1028" max="1028" width="15" style="15" customWidth="1"/>
+    <col min="1029" max="1029" width="9.140625" style="15"/>
+    <col min="1030" max="1036" width="7.28515625" style="15" customWidth="1"/>
+    <col min="1037" max="1280" width="9.140625" style="15"/>
+    <col min="1281" max="1281" width="2.85546875" style="15" customWidth="1"/>
+    <col min="1282" max="1282" width="4.42578125" style="15" customWidth="1"/>
+    <col min="1283" max="1283" width="9.140625" style="15"/>
+    <col min="1284" max="1284" width="15" style="15" customWidth="1"/>
+    <col min="1285" max="1285" width="9.140625" style="15"/>
+    <col min="1286" max="1292" width="7.28515625" style="15" customWidth="1"/>
+    <col min="1293" max="1536" width="9.140625" style="15"/>
+    <col min="1537" max="1537" width="2.85546875" style="15" customWidth="1"/>
+    <col min="1538" max="1538" width="4.42578125" style="15" customWidth="1"/>
+    <col min="1539" max="1539" width="9.140625" style="15"/>
+    <col min="1540" max="1540" width="15" style="15" customWidth="1"/>
+    <col min="1541" max="1541" width="9.140625" style="15"/>
+    <col min="1542" max="1548" width="7.28515625" style="15" customWidth="1"/>
+    <col min="1549" max="1792" width="9.140625" style="15"/>
+    <col min="1793" max="1793" width="2.85546875" style="15" customWidth="1"/>
+    <col min="1794" max="1794" width="4.42578125" style="15" customWidth="1"/>
+    <col min="1795" max="1795" width="9.140625" style="15"/>
+    <col min="1796" max="1796" width="15" style="15" customWidth="1"/>
+    <col min="1797" max="1797" width="9.140625" style="15"/>
+    <col min="1798" max="1804" width="7.28515625" style="15" customWidth="1"/>
+    <col min="1805" max="2048" width="9.140625" style="15"/>
+    <col min="2049" max="2049" width="2.85546875" style="15" customWidth="1"/>
+    <col min="2050" max="2050" width="4.42578125" style="15" customWidth="1"/>
+    <col min="2051" max="2051" width="9.140625" style="15"/>
+    <col min="2052" max="2052" width="15" style="15" customWidth="1"/>
+    <col min="2053" max="2053" width="9.140625" style="15"/>
+    <col min="2054" max="2060" width="7.28515625" style="15" customWidth="1"/>
+    <col min="2061" max="2304" width="9.140625" style="15"/>
+    <col min="2305" max="2305" width="2.85546875" style="15" customWidth="1"/>
+    <col min="2306" max="2306" width="4.42578125" style="15" customWidth="1"/>
+    <col min="2307" max="2307" width="9.140625" style="15"/>
+    <col min="2308" max="2308" width="15" style="15" customWidth="1"/>
+    <col min="2309" max="2309" width="9.140625" style="15"/>
+    <col min="2310" max="2316" width="7.28515625" style="15" customWidth="1"/>
+    <col min="2317" max="2560" width="9.140625" style="15"/>
+    <col min="2561" max="2561" width="2.85546875" style="15" customWidth="1"/>
+    <col min="2562" max="2562" width="4.42578125" style="15" customWidth="1"/>
+    <col min="2563" max="2563" width="9.140625" style="15"/>
+    <col min="2564" max="2564" width="15" style="15" customWidth="1"/>
+    <col min="2565" max="2565" width="9.140625" style="15"/>
+    <col min="2566" max="2572" width="7.28515625" style="15" customWidth="1"/>
+    <col min="2573" max="2816" width="9.140625" style="15"/>
+    <col min="2817" max="2817" width="2.85546875" style="15" customWidth="1"/>
+    <col min="2818" max="2818" width="4.42578125" style="15" customWidth="1"/>
+    <col min="2819" max="2819" width="9.140625" style="15"/>
+    <col min="2820" max="2820" width="15" style="15" customWidth="1"/>
+    <col min="2821" max="2821" width="9.140625" style="15"/>
+    <col min="2822" max="2828" width="7.28515625" style="15" customWidth="1"/>
+    <col min="2829" max="3072" width="9.140625" style="15"/>
+    <col min="3073" max="3073" width="2.85546875" style="15" customWidth="1"/>
+    <col min="3074" max="3074" width="4.42578125" style="15" customWidth="1"/>
+    <col min="3075" max="3075" width="9.140625" style="15"/>
+    <col min="3076" max="3076" width="15" style="15" customWidth="1"/>
+    <col min="3077" max="3077" width="9.140625" style="15"/>
+    <col min="3078" max="3084" width="7.28515625" style="15" customWidth="1"/>
+    <col min="3085" max="3328" width="9.140625" style="15"/>
+    <col min="3329" max="3329" width="2.85546875" style="15" customWidth="1"/>
+    <col min="3330" max="3330" width="4.42578125" style="15" customWidth="1"/>
+    <col min="3331" max="3331" width="9.140625" style="15"/>
+    <col min="3332" max="3332" width="15" style="15" customWidth="1"/>
+    <col min="3333" max="3333" width="9.140625" style="15"/>
+    <col min="3334" max="3340" width="7.28515625" style="15" customWidth="1"/>
+    <col min="3341" max="3584" width="9.140625" style="15"/>
+    <col min="3585" max="3585" width="2.85546875" style="15" customWidth="1"/>
+    <col min="3586" max="3586" width="4.42578125" style="15" customWidth="1"/>
+    <col min="3587" max="3587" width="9.140625" style="15"/>
+    <col min="3588" max="3588" width="15" style="15" customWidth="1"/>
+    <col min="3589" max="3589" width="9.140625" style="15"/>
+    <col min="3590" max="3596" width="7.28515625" style="15" customWidth="1"/>
+    <col min="3597" max="3840" width="9.140625" style="15"/>
+    <col min="3841" max="3841" width="2.85546875" style="15" customWidth="1"/>
+    <col min="3842" max="3842" width="4.42578125" style="15" customWidth="1"/>
+    <col min="3843" max="3843" width="9.140625" style="15"/>
+    <col min="3844" max="3844" width="15" style="15" customWidth="1"/>
+    <col min="3845" max="3845" width="9.140625" style="15"/>
+    <col min="3846" max="3852" width="7.28515625" style="15" customWidth="1"/>
+    <col min="3853" max="4096" width="9.140625" style="15"/>
+    <col min="4097" max="4097" width="2.85546875" style="15" customWidth="1"/>
+    <col min="4098" max="4098" width="4.42578125" style="15" customWidth="1"/>
+    <col min="4099" max="4099" width="9.140625" style="15"/>
+    <col min="4100" max="4100" width="15" style="15" customWidth="1"/>
+    <col min="4101" max="4101" width="9.140625" style="15"/>
+    <col min="4102" max="4108" width="7.28515625" style="15" customWidth="1"/>
+    <col min="4109" max="4352" width="9.140625" style="15"/>
+    <col min="4353" max="4353" width="2.85546875" style="15" customWidth="1"/>
+    <col min="4354" max="4354" width="4.42578125" style="15" customWidth="1"/>
+    <col min="4355" max="4355" width="9.140625" style="15"/>
+    <col min="4356" max="4356" width="15" style="15" customWidth="1"/>
+    <col min="4357" max="4357" width="9.140625" style="15"/>
+    <col min="4358" max="4364" width="7.28515625" style="15" customWidth="1"/>
+    <col min="4365" max="4608" width="9.140625" style="15"/>
+    <col min="4609" max="4609" width="2.85546875" style="15" customWidth="1"/>
+    <col min="4610" max="4610" width="4.42578125" style="15" customWidth="1"/>
+    <col min="4611" max="4611" width="9.140625" style="15"/>
+    <col min="4612" max="4612" width="15" style="15" customWidth="1"/>
+    <col min="4613" max="4613" width="9.140625" style="15"/>
+    <col min="4614" max="4620" width="7.28515625" style="15" customWidth="1"/>
+    <col min="4621" max="4864" width="9.140625" style="15"/>
+    <col min="4865" max="4865" width="2.85546875" style="15" customWidth="1"/>
+    <col min="4866" max="4866" width="4.42578125" style="15" customWidth="1"/>
+    <col min="4867" max="4867" width="9.140625" style="15"/>
+    <col min="4868" max="4868" width="15" style="15" customWidth="1"/>
+    <col min="4869" max="4869" width="9.140625" style="15"/>
+    <col min="4870" max="4876" width="7.28515625" style="15" customWidth="1"/>
+    <col min="4877" max="5120" width="9.140625" style="15"/>
+    <col min="5121" max="5121" width="2.85546875" style="15" customWidth="1"/>
+    <col min="5122" max="5122" width="4.42578125" style="15" customWidth="1"/>
+    <col min="5123" max="5123" width="9.140625" style="15"/>
+    <col min="5124" max="5124" width="15" style="15" customWidth="1"/>
+    <col min="5125" max="5125" width="9.140625" style="15"/>
+    <col min="5126" max="5132" width="7.28515625" style="15" customWidth="1"/>
+    <col min="5133" max="5376" width="9.140625" style="15"/>
+    <col min="5377" max="5377" width="2.85546875" style="15" customWidth="1"/>
+    <col min="5378" max="5378" width="4.42578125" style="15" customWidth="1"/>
+    <col min="5379" max="5379" width="9.140625" style="15"/>
+    <col min="5380" max="5380" width="15" style="15" customWidth="1"/>
+    <col min="5381" max="5381" width="9.140625" style="15"/>
+    <col min="5382" max="5388" width="7.28515625" style="15" customWidth="1"/>
+    <col min="5389" max="5632" width="9.140625" style="15"/>
+    <col min="5633" max="5633" width="2.85546875" style="15" customWidth="1"/>
+    <col min="5634" max="5634" width="4.42578125" style="15" customWidth="1"/>
+    <col min="5635" max="5635" width="9.140625" style="15"/>
+    <col min="5636" max="5636" width="15" style="15" customWidth="1"/>
+    <col min="5637" max="5637" width="9.140625" style="15"/>
+    <col min="5638" max="5644" width="7.28515625" style="15" customWidth="1"/>
+    <col min="5645" max="5888" width="9.140625" style="15"/>
+    <col min="5889" max="5889" width="2.85546875" style="15" customWidth="1"/>
+    <col min="5890" max="5890" width="4.42578125" style="15" customWidth="1"/>
+    <col min="5891" max="5891" width="9.140625" style="15"/>
+    <col min="5892" max="5892" width="15" style="15" customWidth="1"/>
+    <col min="5893" max="5893" width="9.140625" style="15"/>
+    <col min="5894" max="5900" width="7.28515625" style="15" customWidth="1"/>
+    <col min="5901" max="6144" width="9.140625" style="15"/>
+    <col min="6145" max="6145" width="2.85546875" style="15" customWidth="1"/>
+    <col min="6146" max="6146" width="4.42578125" style="15" customWidth="1"/>
+    <col min="6147" max="6147" width="9.140625" style="15"/>
+    <col min="6148" max="6148" width="15" style="15" customWidth="1"/>
+    <col min="6149" max="6149" width="9.140625" style="15"/>
+    <col min="6150" max="6156" width="7.28515625" style="15" customWidth="1"/>
+    <col min="6157" max="6400" width="9.140625" style="15"/>
+    <col min="6401" max="6401" width="2.85546875" style="15" customWidth="1"/>
+    <col min="6402" max="6402" width="4.42578125" style="15" customWidth="1"/>
+    <col min="6403" max="6403" width="9.140625" style="15"/>
+    <col min="6404" max="6404" width="15" style="15" customWidth="1"/>
+    <col min="6405" max="6405" width="9.140625" style="15"/>
+    <col min="6406" max="6412" width="7.28515625" style="15" customWidth="1"/>
+    <col min="6413" max="6656" width="9.140625" style="15"/>
+    <col min="6657" max="6657" width="2.85546875" style="15" customWidth="1"/>
+    <col min="6658" max="6658" width="4.42578125" style="15" customWidth="1"/>
+    <col min="6659" max="6659" width="9.140625" style="15"/>
+    <col min="6660" max="6660" width="15" style="15" customWidth="1"/>
+    <col min="6661" max="6661" width="9.140625" style="15"/>
+    <col min="6662" max="6668" width="7.28515625" style="15" customWidth="1"/>
+    <col min="6669" max="6912" width="9.140625" style="15"/>
+    <col min="6913" max="6913" width="2.85546875" style="15" customWidth="1"/>
+    <col min="6914" max="6914" width="4.42578125" style="15" customWidth="1"/>
+    <col min="6915" max="6915" width="9.140625" style="15"/>
+    <col min="6916" max="6916" width="15" style="15" customWidth="1"/>
+    <col min="6917" max="6917" width="9.140625" style="15"/>
+    <col min="6918" max="6924" width="7.28515625" style="15" customWidth="1"/>
+    <col min="6925" max="7168" width="9.140625" style="15"/>
+    <col min="7169" max="7169" width="2.85546875" style="15" customWidth="1"/>
+    <col min="7170" max="7170" width="4.42578125" style="15" customWidth="1"/>
+    <col min="7171" max="7171" width="9.140625" style="15"/>
+    <col min="7172" max="7172" width="15" style="15" customWidth="1"/>
+    <col min="7173" max="7173" width="9.140625" style="15"/>
+    <col min="7174" max="7180" width="7.28515625" style="15" customWidth="1"/>
+    <col min="7181" max="7424" width="9.140625" style="15"/>
+    <col min="7425" max="7425" width="2.85546875" style="15" customWidth="1"/>
+    <col min="7426" max="7426" width="4.42578125" style="15" customWidth="1"/>
+    <col min="7427" max="7427" width="9.140625" style="15"/>
+    <col min="7428" max="7428" width="15" style="15" customWidth="1"/>
+    <col min="7429" max="7429" width="9.140625" style="15"/>
+    <col min="7430" max="7436" width="7.28515625" style="15" customWidth="1"/>
+    <col min="7437" max="7680" width="9.140625" style="15"/>
+    <col min="7681" max="7681" width="2.85546875" style="15" customWidth="1"/>
+    <col min="7682" max="7682" width="4.42578125" style="15" customWidth="1"/>
+    <col min="7683" max="7683" width="9.140625" style="15"/>
+    <col min="7684" max="7684" width="15" style="15" customWidth="1"/>
+    <col min="7685" max="7685" width="9.140625" style="15"/>
+    <col min="7686" max="7692" width="7.28515625" style="15" customWidth="1"/>
+    <col min="7693" max="7936" width="9.140625" style="15"/>
+    <col min="7937" max="7937" width="2.85546875" style="15" customWidth="1"/>
+    <col min="7938" max="7938" width="4.42578125" style="15" customWidth="1"/>
+    <col min="7939" max="7939" width="9.140625" style="15"/>
+    <col min="7940" max="7940" width="15" style="15" customWidth="1"/>
+    <col min="7941" max="7941" width="9.140625" style="15"/>
+    <col min="7942" max="7948" width="7.28515625" style="15" customWidth="1"/>
+    <col min="7949" max="8192" width="9.140625" style="15"/>
+    <col min="8193" max="8193" width="2.85546875" style="15" customWidth="1"/>
+    <col min="8194" max="8194" width="4.42578125" style="15" customWidth="1"/>
+    <col min="8195" max="8195" width="9.140625" style="15"/>
+    <col min="8196" max="8196" width="15" style="15" customWidth="1"/>
+    <col min="8197" max="8197" width="9.140625" style="15"/>
+    <col min="8198" max="8204" width="7.28515625" style="15" customWidth="1"/>
+    <col min="8205" max="8448" width="9.140625" style="15"/>
+    <col min="8449" max="8449" width="2.85546875" style="15" customWidth="1"/>
+    <col min="8450" max="8450" width="4.42578125" style="15" customWidth="1"/>
+    <col min="8451" max="8451" width="9.140625" style="15"/>
+    <col min="8452" max="8452" width="15" style="15" customWidth="1"/>
+    <col min="8453" max="8453" width="9.140625" style="15"/>
+    <col min="8454" max="8460" width="7.28515625" style="15" customWidth="1"/>
+    <col min="8461" max="8704" width="9.140625" style="15"/>
+    <col min="8705" max="8705" width="2.85546875" style="15" customWidth="1"/>
+    <col min="8706" max="8706" width="4.42578125" style="15" customWidth="1"/>
+    <col min="8707" max="8707" width="9.140625" style="15"/>
+    <col min="8708" max="8708" width="15" style="15" customWidth="1"/>
+    <col min="8709" max="8709" width="9.140625" style="15"/>
+    <col min="8710" max="8716" width="7.28515625" style="15" customWidth="1"/>
+    <col min="8717" max="8960" width="9.140625" style="15"/>
+    <col min="8961" max="8961" width="2.85546875" style="15" customWidth="1"/>
+    <col min="8962" max="8962" width="4.42578125" style="15" customWidth="1"/>
+    <col min="8963" max="8963" width="9.140625" style="15"/>
+    <col min="8964" max="8964" width="15" style="15" customWidth="1"/>
+    <col min="8965" max="8965" width="9.140625" style="15"/>
+    <col min="8966" max="8972" width="7.28515625" style="15" customWidth="1"/>
+    <col min="8973" max="9216" width="9.140625" style="15"/>
+    <col min="9217" max="9217" width="2.85546875" style="15" customWidth="1"/>
+    <col min="9218" max="9218" width="4.42578125" style="15" customWidth="1"/>
+    <col min="9219" max="9219" width="9.140625" style="15"/>
+    <col min="9220" max="9220" width="15" style="15" customWidth="1"/>
+    <col min="9221" max="9221" width="9.140625" style="15"/>
+    <col min="9222" max="9228" width="7.28515625" style="15" customWidth="1"/>
+    <col min="9229" max="9472" width="9.140625" style="15"/>
+    <col min="9473" max="9473" width="2.85546875" style="15" customWidth="1"/>
+    <col min="9474" max="9474" width="4.42578125" style="15" customWidth="1"/>
+    <col min="9475" max="9475" width="9.140625" style="15"/>
+    <col min="9476" max="9476" width="15" style="15" customWidth="1"/>
+    <col min="9477" max="9477" width="9.140625" style="15"/>
+    <col min="9478" max="9484" width="7.28515625" style="15" customWidth="1"/>
+    <col min="9485" max="9728" width="9.140625" style="15"/>
+    <col min="9729" max="9729" width="2.85546875" style="15" customWidth="1"/>
+    <col min="9730" max="9730" width="4.42578125" style="15" customWidth="1"/>
+    <col min="9731" max="9731" width="9.140625" style="15"/>
+    <col min="9732" max="9732" width="15" style="15" customWidth="1"/>
+    <col min="9733" max="9733" width="9.140625" style="15"/>
+    <col min="9734" max="9740" width="7.28515625" style="15" customWidth="1"/>
+    <col min="9741" max="9984" width="9.140625" style="15"/>
+    <col min="9985" max="9985" width="2.85546875" style="15" customWidth="1"/>
+    <col min="9986" max="9986" width="4.42578125" style="15" customWidth="1"/>
+    <col min="9987" max="9987" width="9.140625" style="15"/>
+    <col min="9988" max="9988" width="15" style="15" customWidth="1"/>
+    <col min="9989" max="9989" width="9.140625" style="15"/>
+    <col min="9990" max="9996" width="7.28515625" style="15" customWidth="1"/>
+    <col min="9997" max="10240" width="9.140625" style="15"/>
+    <col min="10241" max="10241" width="2.85546875" style="15" customWidth="1"/>
+    <col min="10242" max="10242" width="4.42578125" style="15" customWidth="1"/>
+    <col min="10243" max="10243" width="9.140625" style="15"/>
+    <col min="10244" max="10244" width="15" style="15" customWidth="1"/>
+    <col min="10245" max="10245" width="9.140625" style="15"/>
+    <col min="10246" max="10252" width="7.28515625" style="15" customWidth="1"/>
+    <col min="10253" max="10496" width="9.140625" style="15"/>
+    <col min="10497" max="10497" width="2.85546875" style="15" customWidth="1"/>
+    <col min="10498" max="10498" width="4.42578125" style="15" customWidth="1"/>
+    <col min="10499" max="10499" width="9.140625" style="15"/>
+    <col min="10500" max="10500" width="15" style="15" customWidth="1"/>
+    <col min="10501" max="10501" width="9.140625" style="15"/>
+    <col min="10502" max="10508" width="7.28515625" style="15" customWidth="1"/>
+    <col min="10509" max="10752" width="9.140625" style="15"/>
+    <col min="10753" max="10753" width="2.85546875" style="15" customWidth="1"/>
+    <col min="10754" max="10754" width="4.42578125" style="15" customWidth="1"/>
+    <col min="10755" max="10755" width="9.140625" style="15"/>
+    <col min="10756" max="10756" width="15" style="15" customWidth="1"/>
+    <col min="10757" max="10757" width="9.140625" style="15"/>
+    <col min="10758" max="10764" width="7.28515625" style="15" customWidth="1"/>
+    <col min="10765" max="11008" width="9.140625" style="15"/>
+    <col min="11009" max="11009" width="2.85546875" style="15" customWidth="1"/>
+    <col min="11010" max="11010" width="4.42578125" style="15" customWidth="1"/>
+    <col min="11011" max="11011" width="9.140625" style="15"/>
+    <col min="11012" max="11012" width="15" style="15" customWidth="1"/>
+    <col min="11013" max="11013" width="9.140625" style="15"/>
+    <col min="11014" max="11020" width="7.28515625" style="15" customWidth="1"/>
+    <col min="11021" max="11264" width="9.140625" style="15"/>
+    <col min="11265" max="11265" width="2.85546875" style="15" customWidth="1"/>
+    <col min="11266" max="11266" width="4.42578125" style="15" customWidth="1"/>
+    <col min="11267" max="11267" width="9.140625" style="15"/>
+    <col min="11268" max="11268" width="15" style="15" customWidth="1"/>
+    <col min="11269" max="11269" width="9.140625" style="15"/>
+    <col min="11270" max="11276" width="7.28515625" style="15" customWidth="1"/>
+    <col min="11277" max="11520" width="9.140625" style="15"/>
+    <col min="11521" max="11521" width="2.85546875" style="15" customWidth="1"/>
+    <col min="11522" max="11522" width="4.42578125" style="15" customWidth="1"/>
+    <col min="11523" max="11523" width="9.140625" style="15"/>
+    <col min="11524" max="11524" width="15" style="15" customWidth="1"/>
+    <col min="11525" max="11525" width="9.140625" style="15"/>
+    <col min="11526" max="11532" width="7.28515625" style="15" customWidth="1"/>
+    <col min="11533" max="11776" width="9.140625" style="15"/>
+    <col min="11777" max="11777" width="2.85546875" style="15" customWidth="1"/>
+    <col min="11778" max="11778" width="4.42578125" style="15" customWidth="1"/>
+    <col min="11779" max="11779" width="9.140625" style="15"/>
+    <col min="11780" max="11780" width="15" style="15" customWidth="1"/>
+    <col min="11781" max="11781" width="9.140625" style="15"/>
+    <col min="11782" max="11788" width="7.28515625" style="15" customWidth="1"/>
+    <col min="11789" max="12032" width="9.140625" style="15"/>
+    <col min="12033" max="12033" width="2.85546875" style="15" customWidth="1"/>
+    <col min="12034" max="12034" width="4.42578125" style="15" customWidth="1"/>
+    <col min="12035" max="12035" width="9.140625" style="15"/>
+    <col min="12036" max="12036" width="15" style="15" customWidth="1"/>
+    <col min="12037" max="12037" width="9.140625" style="15"/>
+    <col min="12038" max="12044" width="7.28515625" style="15" customWidth="1"/>
+    <col min="12045" max="12288" width="9.140625" style="15"/>
+    <col min="12289" max="12289" width="2.85546875" style="15" customWidth="1"/>
+    <col min="12290" max="12290" width="4.42578125" style="15" customWidth="1"/>
+    <col min="12291" max="12291" width="9.140625" style="15"/>
+    <col min="12292" max="12292" width="15" style="15" customWidth="1"/>
+    <col min="12293" max="12293" width="9.140625" style="15"/>
+    <col min="12294" max="12300" width="7.28515625" style="15" customWidth="1"/>
+    <col min="12301" max="12544" width="9.140625" style="15"/>
+    <col min="12545" max="12545" width="2.85546875" style="15" customWidth="1"/>
+    <col min="12546" max="12546" width="4.42578125" style="15" customWidth="1"/>
+    <col min="12547" max="12547" width="9.140625" style="15"/>
+    <col min="12548" max="12548" width="15" style="15" customWidth="1"/>
+    <col min="12549" max="12549" width="9.140625" style="15"/>
+    <col min="12550" max="12556" width="7.28515625" style="15" customWidth="1"/>
+    <col min="12557" max="12800" width="9.140625" style="15"/>
+    <col min="12801" max="12801" width="2.85546875" style="15" customWidth="1"/>
+    <col min="12802" max="12802" width="4.42578125" style="15" customWidth="1"/>
+    <col min="12803" max="12803" width="9.140625" style="15"/>
+    <col min="12804" max="12804" width="15" style="15" customWidth="1"/>
+    <col min="12805" max="12805" width="9.140625" style="15"/>
+    <col min="12806" max="12812" width="7.28515625" style="15" customWidth="1"/>
+    <col min="12813" max="13056" width="9.140625" style="15"/>
+    <col min="13057" max="13057" width="2.85546875" style="15" customWidth="1"/>
+    <col min="13058" max="13058" width="4.42578125" style="15" customWidth="1"/>
+    <col min="13059" max="13059" width="9.140625" style="15"/>
+    <col min="13060" max="13060" width="15" style="15" customWidth="1"/>
+    <col min="13061" max="13061" width="9.140625" style="15"/>
+    <col min="13062" max="13068" width="7.28515625" style="15" customWidth="1"/>
+    <col min="13069" max="13312" width="9.140625" style="15"/>
+    <col min="13313" max="13313" width="2.85546875" style="15" customWidth="1"/>
+    <col min="13314" max="13314" width="4.42578125" style="15" customWidth="1"/>
+    <col min="13315" max="13315" width="9.140625" style="15"/>
+    <col min="13316" max="13316" width="15" style="15" customWidth="1"/>
+    <col min="13317" max="13317" width="9.140625" style="15"/>
+    <col min="13318" max="13324" width="7.28515625" style="15" customWidth="1"/>
+    <col min="13325" max="13568" width="9.140625" style="15"/>
+    <col min="13569" max="13569" width="2.85546875" style="15" customWidth="1"/>
+    <col min="13570" max="13570" width="4.42578125" style="15" customWidth="1"/>
+    <col min="13571" max="13571" width="9.140625" style="15"/>
+    <col min="13572" max="13572" width="15" style="15" customWidth="1"/>
+    <col min="13573" max="13573" width="9.140625" style="15"/>
+    <col min="13574" max="13580" width="7.28515625" style="15" customWidth="1"/>
+    <col min="13581" max="13824" width="9.140625" style="15"/>
+    <col min="13825" max="13825" width="2.85546875" style="15" customWidth="1"/>
+    <col min="13826" max="13826" width="4.42578125" style="15" customWidth="1"/>
+    <col min="13827" max="13827" width="9.140625" style="15"/>
+    <col min="13828" max="13828" width="15" style="15" customWidth="1"/>
+    <col min="13829" max="13829" width="9.140625" style="15"/>
+    <col min="13830" max="13836" width="7.28515625" style="15" customWidth="1"/>
+    <col min="13837" max="14080" width="9.140625" style="15"/>
+    <col min="14081" max="14081" width="2.85546875" style="15" customWidth="1"/>
+    <col min="14082" max="14082" width="4.42578125" style="15" customWidth="1"/>
+    <col min="14083" max="14083" width="9.140625" style="15"/>
+    <col min="14084" max="14084" width="15" style="15" customWidth="1"/>
+    <col min="14085" max="14085" width="9.140625" style="15"/>
+    <col min="14086" max="14092" width="7.28515625" style="15" customWidth="1"/>
+    <col min="14093" max="14336" width="9.140625" style="15"/>
+    <col min="14337" max="14337" width="2.85546875" style="15" customWidth="1"/>
+    <col min="14338" max="14338" width="4.42578125" style="15" customWidth="1"/>
+    <col min="14339" max="14339" width="9.140625" style="15"/>
+    <col min="14340" max="14340" width="15" style="15" customWidth="1"/>
+    <col min="14341" max="14341" width="9.140625" style="15"/>
+    <col min="14342" max="14348" width="7.28515625" style="15" customWidth="1"/>
+    <col min="14349" max="14592" width="9.140625" style="15"/>
+    <col min="14593" max="14593" width="2.85546875" style="15" customWidth="1"/>
+    <col min="14594" max="14594" width="4.42578125" style="15" customWidth="1"/>
+    <col min="14595" max="14595" width="9.140625" style="15"/>
+    <col min="14596" max="14596" width="15" style="15" customWidth="1"/>
+    <col min="14597" max="14597" width="9.140625" style="15"/>
+    <col min="14598" max="14604" width="7.28515625" style="15" customWidth="1"/>
+    <col min="14605" max="14848" width="9.140625" style="15"/>
+    <col min="14849" max="14849" width="2.85546875" style="15" customWidth="1"/>
+    <col min="14850" max="14850" width="4.42578125" style="15" customWidth="1"/>
+    <col min="14851" max="14851" width="9.140625" style="15"/>
+    <col min="14852" max="14852" width="15" style="15" customWidth="1"/>
+    <col min="14853" max="14853" width="9.140625" style="15"/>
+    <col min="14854" max="14860" width="7.28515625" style="15" customWidth="1"/>
+    <col min="14861" max="15104" width="9.140625" style="15"/>
+    <col min="15105" max="15105" width="2.85546875" style="15" customWidth="1"/>
+    <col min="15106" max="15106" width="4.42578125" style="15" customWidth="1"/>
+    <col min="15107" max="15107" width="9.140625" style="15"/>
+    <col min="15108" max="15108" width="15" style="15" customWidth="1"/>
+    <col min="15109" max="15109" width="9.140625" style="15"/>
+    <col min="15110" max="15116" width="7.28515625" style="15" customWidth="1"/>
+    <col min="15117" max="15360" width="9.140625" style="15"/>
+    <col min="15361" max="15361" width="2.85546875" style="15" customWidth="1"/>
+    <col min="15362" max="15362" width="4.42578125" style="15" customWidth="1"/>
+    <col min="15363" max="15363" width="9.140625" style="15"/>
+    <col min="15364" max="15364" width="15" style="15" customWidth="1"/>
+    <col min="15365" max="15365" width="9.140625" style="15"/>
+    <col min="15366" max="15372" width="7.28515625" style="15" customWidth="1"/>
+    <col min="15373" max="15616" width="9.140625" style="15"/>
+    <col min="15617" max="15617" width="2.85546875" style="15" customWidth="1"/>
+    <col min="15618" max="15618" width="4.42578125" style="15" customWidth="1"/>
+    <col min="15619" max="15619" width="9.140625" style="15"/>
+    <col min="15620" max="15620" width="15" style="15" customWidth="1"/>
+    <col min="15621" max="15621" width="9.140625" style="15"/>
+    <col min="15622" max="15628" width="7.28515625" style="15" customWidth="1"/>
+    <col min="15629" max="15872" width="9.140625" style="15"/>
+    <col min="15873" max="15873" width="2.85546875" style="15" customWidth="1"/>
+    <col min="15874" max="15874" width="4.42578125" style="15" customWidth="1"/>
+    <col min="15875" max="15875" width="9.140625" style="15"/>
+    <col min="15876" max="15876" width="15" style="15" customWidth="1"/>
+    <col min="15877" max="15877" width="9.140625" style="15"/>
+    <col min="15878" max="15884" width="7.28515625" style="15" customWidth="1"/>
+    <col min="15885" max="16128" width="9.140625" style="15"/>
+    <col min="16129" max="16129" width="2.85546875" style="15" customWidth="1"/>
+    <col min="16130" max="16130" width="4.42578125" style="15" customWidth="1"/>
+    <col min="16131" max="16131" width="9.140625" style="15"/>
+    <col min="16132" max="16132" width="15" style="15" customWidth="1"/>
+    <col min="16133" max="16133" width="9.140625" style="15"/>
+    <col min="16134" max="16140" width="7.28515625" style="15" customWidth="1"/>
+    <col min="16141" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+    </row>
+    <row r="3" spans="1:16" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-    </row>
-    <row r="3" spans="1:16" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="30" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="30" t="s">
+      <c r="H3" s="38"/>
+      <c r="I3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="32" t="s">
+      <c r="J3" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="K3" s="38"/>
+      <c r="L3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32" t="s">
+      <c r="M3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="N3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="O3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="P3" s="38"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="31"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34" t="s">
+      <c r="J4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="K4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="L4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="P4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="32" t="s">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="17"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="32"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
-        <v>1</v>
-      </c>
-      <c r="B6" s="36" t="s">
+      <c r="C6" s="16">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D6" s="16">
+        <v>9.6</v>
+      </c>
+      <c r="E6" s="16">
+        <v>3</v>
+      </c>
+      <c r="F6" s="16">
+        <v>4</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16">
+        <v>10</v>
+      </c>
+      <c r="J6" s="16">
+        <v>3</v>
+      </c>
+      <c r="K6" s="16">
+        <v>5</v>
+      </c>
+      <c r="L6" s="16">
+        <v>2</v>
+      </c>
+      <c r="M6" s="16">
+        <v>2</v>
+      </c>
+      <c r="N6" s="16">
+        <v>100</v>
+      </c>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>2</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C7" s="16">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D7" s="16">
         <v>9.6</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E7" s="16">
         <v>3</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F7" s="16">
         <v>4</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16">
+        <v>2</v>
+      </c>
+      <c r="M7" s="16">
+        <v>2</v>
+      </c>
+      <c r="N7" s="16">
+        <v>100</v>
+      </c>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>3</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="16">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D8" s="16">
+        <v>9.1</v>
+      </c>
+      <c r="E8" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="F8" s="16">
+        <v>5</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16">
+        <v>2</v>
+      </c>
+      <c r="M8" s="16">
+        <v>2</v>
+      </c>
+      <c r="N8" s="16">
+        <v>100</v>
+      </c>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>4</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="16">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D9" s="16">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E9" s="16">
+        <v>4</v>
+      </c>
+      <c r="F9" s="16">
+        <v>5</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16">
+        <v>2</v>
+      </c>
+      <c r="M9" s="16">
+        <v>2</v>
+      </c>
+      <c r="N9" s="16">
+        <v>100</v>
+      </c>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>5</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="16">
+        <v>9</v>
+      </c>
+      <c r="D10" s="16">
+        <v>9.6</v>
+      </c>
+      <c r="E10" s="16">
+        <v>4</v>
+      </c>
+      <c r="F10" s="16">
+        <v>5</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16">
+        <v>2</v>
+      </c>
+      <c r="M10" s="16">
+        <v>2</v>
+      </c>
+      <c r="N10" s="16">
+        <v>100</v>
+      </c>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>6</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16">
+        <v>6</v>
+      </c>
+      <c r="H11" s="16">
+        <v>8</v>
+      </c>
+      <c r="I11" s="16">
         <v>10</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J11" s="16">
         <v>3</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K11" s="16">
         <v>5</v>
       </c>
-      <c r="L6" s="28">
-        <v>2</v>
-      </c>
-      <c r="M6" s="28">
-        <v>2</v>
-      </c>
-      <c r="N6" s="28">
-        <v>100</v>
-      </c>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
-        <v>2</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="28">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="D7" s="28">
-        <v>9.6</v>
-      </c>
-      <c r="E7" s="28">
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16">
+        <v>300</v>
+      </c>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>9</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16">
+        <v>6</v>
+      </c>
+      <c r="H12" s="16">
+        <v>8</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16">
         <v>3</v>
       </c>
-      <c r="F7" s="28">
-        <v>4</v>
-      </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28">
-        <v>2</v>
-      </c>
-      <c r="M7" s="28">
-        <v>2</v>
-      </c>
-      <c r="N7" s="28">
-        <v>100</v>
-      </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="K12" s="16">
+        <v>5</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16">
+        <v>200</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>11</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16">
         <v>3</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="28">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="D8" s="28">
-        <v>9.1</v>
-      </c>
-      <c r="E8" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="F8" s="28">
+      <c r="K13" s="16">
         <v>5</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28">
-        <v>2</v>
-      </c>
-      <c r="M8" s="28">
-        <v>2</v>
-      </c>
-      <c r="N8" s="28">
-        <v>100</v>
-      </c>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
-        <v>4</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="28">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="D9" s="28">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="E9" s="28">
-        <v>4</v>
-      </c>
-      <c r="F9" s="28">
-        <v>5</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28">
-        <v>2</v>
-      </c>
-      <c r="M9" s="28">
-        <v>2</v>
-      </c>
-      <c r="N9" s="28">
-        <v>100</v>
-      </c>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
-        <v>5</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="28">
-        <v>9</v>
-      </c>
-      <c r="D10" s="28">
-        <v>9.6</v>
-      </c>
-      <c r="E10" s="28">
-        <v>4</v>
-      </c>
-      <c r="F10" s="28">
-        <v>5</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28">
-        <v>2</v>
-      </c>
-      <c r="M10" s="28">
-        <v>2</v>
-      </c>
-      <c r="N10" s="28">
-        <v>100</v>
-      </c>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
-        <v>6</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28">
-        <v>6</v>
-      </c>
-      <c r="H11" s="28">
-        <v>8</v>
-      </c>
-      <c r="I11" s="28">
-        <v>10</v>
-      </c>
-      <c r="J11" s="28">
-        <v>3</v>
-      </c>
-      <c r="K11" s="28">
-        <v>5</v>
-      </c>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28">
-        <v>300</v>
-      </c>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
-        <v>7</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28">
-        <v>6</v>
-      </c>
-      <c r="H12" s="28">
-        <v>8</v>
-      </c>
-      <c r="I12" s="28">
-        <v>10</v>
-      </c>
-      <c r="J12" s="28">
-        <v>3</v>
-      </c>
-      <c r="K12" s="28">
-        <v>5</v>
-      </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28">
-        <v>300</v>
-      </c>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
-        <v>8</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28">
-        <v>6</v>
-      </c>
-      <c r="H13" s="28">
-        <v>8</v>
-      </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28">
-        <v>3</v>
-      </c>
-      <c r="K13" s="28">
-        <v>5</v>
-      </c>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-    </row>
-    <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
-        <v>9</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28">
-        <v>6</v>
-      </c>
-      <c r="H14" s="28">
-        <v>8</v>
-      </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28">
-        <v>3</v>
-      </c>
-      <c r="K14" s="28">
-        <v>5</v>
-      </c>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28">
-        <v>200</v>
-      </c>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-    </row>
-    <row r="15" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
-        <v>10</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28">
-        <v>6</v>
-      </c>
-      <c r="H15" s="28">
-        <v>8</v>
-      </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28">
-        <v>3</v>
-      </c>
-      <c r="K15" s="28">
-        <v>5</v>
-      </c>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
-        <v>11</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28">
-        <v>3</v>
-      </c>
-      <c r="K16" s="28">
-        <v>5</v>
-      </c>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28">
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16">
         <v>5.0999999999999996</v>
       </c>
-      <c r="P16" s="28">
+      <c r="P13" s="16">
         <v>6.6</v>
       </c>
     </row>
